--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail0 Features.xlsx
@@ -6501,7 +6501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6512,29 +6512,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6555,115 +6553,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6680,72 +6668,66 @@
         <v>1.456077980896368e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2199878395083467</v>
+        <v>4.668140076172389e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.287568765126419</v>
+        <v>2.402311339752281e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.668140076172389e-07</v>
+        <v>-0.0422336248135692</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.402311339752281e-06</v>
+        <v>0.05470680314112496</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0422336248135692</v>
+        <v>0.004773670847691761</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.05470680314112496</v>
+        <v>1.919808745241542</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.004773670847691761</v>
+        <v>3.938736874986747</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.959931185308828</v>
+        <v>8.846554430511466</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.938736874986747</v>
+        <v>3.199736349711653e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.846554430511466</v>
+        <v>46623792901.17029</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.199736349711653e-18</v>
+        <v>2.568988771764784e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>46623792901.17029</v>
+        <v>6955.516689158389</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.568988771764784e-09</v>
+        <v>3.154978480032484e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6955.516689158389</v>
+        <v>6.469207444763876</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.154978480032484e-06</v>
+        <v>2.068686571092356</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.469207444763876</v>
+        <v>0.0001320378842349702</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.068686571092356</v>
+        <v>8.921499283948631</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001320378842349702</v>
+        <v>0.9617372294172787</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.921499283948631</v>
+        <v>0.6365797112033109</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9617372294172787</v>
+        <v>573</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6365797112033109</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>20.36636805096708</v>
       </c>
     </row>
@@ -6760,72 +6742,66 @@
         <v>1.488129930297036e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.183725441401458</v>
+        <v>4.754122635893848e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.29940415753876</v>
+        <v>2.395857355339146e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.754122635893848e-07</v>
+        <v>-0.0452166083359123</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.395857355339146e-06</v>
+        <v>0.04542750059224896</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0452166083359123</v>
+        <v>0.004106891252710388</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.04542750059224896</v>
+        <v>1.924674615805527</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.004106891252710388</v>
+        <v>3.918602761898294</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.962280759265265</v>
+        <v>9.855524157041438</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.918602761898294</v>
+        <v>2.578119533342016e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9.855524157041438</v>
+        <v>58520142674.69083</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.578119533342016e-18</v>
+        <v>2.051270443248277e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>58520142674.69083</v>
+        <v>8829.046455092985</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.051270443248277e-09</v>
+        <v>2.761602134722617e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8829.046455092985</v>
+        <v>7.492569001284952</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.761602134722617e-06</v>
+        <v>1.830527429519066</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.492569001284952</v>
+        <v>0.0001550324506443854</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.830527429519066</v>
+        <v>8.959818979364549</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001550324506443854</v>
+        <v>0.9620734238179756</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.959818979364549</v>
+        <v>0.673252635113051</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9620734238179756</v>
+        <v>603</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.673252635113051</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>603</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>20.98952633141914</v>
       </c>
     </row>
@@ -6840,72 +6816,66 @@
         <v>1.51587639559642e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1471854810295634</v>
+        <v>4.838738571883069e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.301261385799087</v>
+        <v>2.38890164132049e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.838738571883069e-07</v>
+        <v>-0.04720509011024972</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.38890164132049e-06</v>
+        <v>0.03955879568878992</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04720509011024972</v>
+        <v>0.003792824704063639</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.03955879568878992</v>
+        <v>1.922235288434498</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.003792824704063639</v>
+        <v>3.755923350518453</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.962217865252539</v>
+        <v>10.32701264427821</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.755923350518453</v>
+        <v>2.348081059581143e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>10.32701264427821</v>
+        <v>64307260851.01025</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.348081059581143e-18</v>
+        <v>1.86132352638493e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>64307260851.01025</v>
+        <v>9710.310293800318</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.86132352638493e-09</v>
+        <v>2.62037607781072e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9710.310293800318</v>
+        <v>7.701381978195796</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.62037607781072e-06</v>
+        <v>1.741922027489451</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.701381978195796</v>
+        <v>0.0001554178707180653</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.741922027489451</v>
+        <v>8.978134140092326</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0001554178707180653</v>
+        <v>0.9630961376434084</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.978134140092326</v>
+        <v>0.6399345146113559</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9630961376434084</v>
+        <v>605</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6399345146113559</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>605</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>21.05042701501684</v>
       </c>
     </row>
@@ -6920,72 +6890,66 @@
         <v>1.539964173658658e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1118653551711366</v>
+        <v>4.921950409121646e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.296283297587334</v>
+        <v>2.381582668066611e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.921950409121646e-07</v>
+        <v>-0.04847637722152423</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.381582668066611e-06</v>
+        <v>0.03603768445074682</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04847637722152423</v>
+        <v>0.003648623425681443</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03603768445074682</v>
+        <v>1.919714940033853</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.003648623425681443</v>
+        <v>4.04984702902439</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.962232547848059</v>
+        <v>10.29071169130694</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4.04984702902439</v>
+        <v>2.364676203317743e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>10.29071169130694</v>
+        <v>63563382676.04491</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.364676203317743e-18</v>
+        <v>1.884373114261917e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>63563382676.04491</v>
+        <v>9554.00981782187</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.884373114261917e-09</v>
+        <v>2.374621840388749e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9554.00981782187</v>
+        <v>7.602393311002832</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.374621840388749e-06</v>
+        <v>1.762409174601054</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.602393311002832</v>
+        <v>0.0001372445558729279</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.762409174601054</v>
+        <v>8.995595530060772</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001372445558729279</v>
+        <v>0.9634900325689931</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.995595530060772</v>
+        <v>0.6586561486236303</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9634900325689931</v>
+        <v>581</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6586561486236303</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>581</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>21.8130469879613</v>
       </c>
     </row>
@@ -7000,72 +6964,66 @@
         <v>1.560979661811036e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.07798949140753374</v>
+        <v>5.003123546124457e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.286394893361461</v>
+        <v>2.373992846992094e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.003123546124457e-07</v>
+        <v>-0.04934600853126789</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.373992846992094e-06</v>
+        <v>0.03368467196358103</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04934600853126789</v>
+        <v>0.003569775327270955</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.03368467196358103</v>
+        <v>1.917696151442948</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003569775327270955</v>
+        <v>3.809851958993644</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.956851788050262</v>
+        <v>11.1956297230372</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.809851958993644</v>
+        <v>2.500643158794244e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>11.1956297230372</v>
+        <v>59965309548.21129</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.500643158794244e-18</v>
+        <v>2.002096768859024e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>59965309548.21129</v>
+        <v>8991.908568088975</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.002096768859024e-09</v>
+        <v>2.373961159433574e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8991.908568088975</v>
+        <v>6.920776042171185</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.373961159433574e-06</v>
+        <v>1.90509096628261</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.920776042171185</v>
+        <v>0.0001137059524433767</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.90509096628261</v>
+        <v>8.985099371740064</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001137059524433767</v>
+        <v>0.9632021783688777</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.985099371740064</v>
+        <v>0.6973338503479314</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9632021783688777</v>
+        <v>541</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6973338503479314</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>541</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>22.67858500822311</v>
       </c>
     </row>
@@ -7080,72 +7038,66 @@
         <v>1.579316540668582e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.04540504405507399</v>
+        <v>5.082616879052287e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.272617138859424</v>
+        <v>2.366191318384362e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.082616879052287e-07</v>
+        <v>-0.04997998510563979</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.366191318384362e-06</v>
+        <v>0.03198677626444668</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04997998510563979</v>
+        <v>0.003521295707898987</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.03198677626444668</v>
+        <v>1.926024616369689</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003521295707898987</v>
+        <v>3.706142780898233</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.960622578568006</v>
+        <v>10.77407432620896</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.706142780898233</v>
+        <v>2.700155905742921e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>10.77407432620896</v>
+        <v>58320597743.19771</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.700155905742921e-18</v>
+        <v>2.071656213912297e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>58320597743.19771</v>
+        <v>9184.019008009504</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.071656213912297e-09</v>
+        <v>2.689255212555801e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9184.019008009504</v>
+        <v>6.664773056935307</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.689255212555801e-06</v>
+        <v>1.963119506248671</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.664773056935307</v>
+        <v>0.0001194545648698454</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.963119506248671</v>
+        <v>8.959612720764053</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0001194545648698454</v>
+        <v>0.9635895840512152</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.959612720764053</v>
+        <v>0.6856243031771158</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9635895840512152</v>
+        <v>548</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6856243031771158</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>548</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>22.98599284838911</v>
       </c>
     </row>
@@ -7160,72 +7112,66 @@
         <v>1.595156815594714e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01404269232743516</v>
+        <v>5.160790894239098e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.255436914013888</v>
+        <v>2.358209786746939e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.160790894239098e-07</v>
+        <v>-0.05057940561799715</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.358209786746939e-06</v>
+        <v>0.03047328648687769</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05057940561799715</v>
+        <v>0.003487055744939951</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.03047328648687769</v>
+        <v>1.925152156290809</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.003487055744939951</v>
+        <v>3.445442373098468</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.961092217078065</v>
+        <v>10.82412443199112</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.445442373098468</v>
+        <v>2.675242917580782e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>10.82412443199112</v>
+        <v>58612653848.69863</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.675242917580782e-18</v>
+        <v>2.053652707799632e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>58612653848.69863</v>
+        <v>9190.645065975124</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.053652707799632e-09</v>
+        <v>3.048720608458637e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9190.645065975124</v>
+        <v>7.227529444712481</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.048720608458637e-06</v>
+        <v>1.856133597661731</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.227529444712481</v>
+        <v>0.0001592565729076325</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.856133597661731</v>
+        <v>8.960573036427771</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001592565729076325</v>
+        <v>0.9631354339566015</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.960573036427771</v>
+        <v>0.6693604058007977</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9631354339566015</v>
+        <v>519</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6693604058007977</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>519</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>22.22177539090354</v>
       </c>
     </row>
@@ -7240,72 +7186,66 @@
         <v>1.608284627360458e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.01577358322716848</v>
+        <v>5.237312822055041e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.23529581999509</v>
+        <v>2.350048215703069e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.237312822055041e-07</v>
+        <v>-0.05135042636854577</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.350048215703069e-06</v>
+        <v>0.02866425622859425</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05135042636854577</v>
+        <v>0.003458642118651865</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.02866425622859425</v>
+        <v>1.926370859139643</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.003458642118651865</v>
+        <v>3.835891425217866</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.95701770201019</v>
+        <v>11.46562673485131</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.835891425217866</v>
+        <v>2.384257607655377e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>11.46562673485131</v>
+        <v>64456864959.93246</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.384257607655377e-18</v>
+        <v>1.874369061648825e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>64456864959.93246</v>
+        <v>9905.845137354079</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.874369061648825e-09</v>
+        <v>3.201199306289045e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>9905.845137354079</v>
+        <v>8.231214462129255</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.201199306289045e-06</v>
+        <v>1.70777061032462</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.231214462129255</v>
+        <v>0.0002168905093379134</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.70777061032462</v>
+        <v>8.921718286981116</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0002168905093379134</v>
+        <v>0.964473391431394</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.921718286981116</v>
+        <v>0.6692996005689887</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.964473391431394</v>
+        <v>497</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6692996005689887</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>497</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>21.10101939258978</v>
       </c>
     </row>
@@ -7320,72 +7260,66 @@
         <v>1.618004186965395e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.04299402456447987</v>
+        <v>5.312359369176755e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.213212677548567</v>
+        <v>2.341674953374395e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.312359369176755e-07</v>
+        <v>-0.05251120473288005</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.341674953374395e-06</v>
+        <v>0.02579848515374291</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05251120473288005</v>
+        <v>0.003423012692703414</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.02579848515374291</v>
+        <v>1.9322324324543</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003423012692703414</v>
+        <v>4.298793926381806</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.959394736471622</v>
+        <v>8.207684532632966</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.298793926381806</v>
+        <v>2.21407265626303e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.207684532632966</v>
+        <v>67400913713.36354</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.21407265626303e-18</v>
+        <v>1.798793306654853e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>67400913713.36354</v>
+        <v>10058.27340595783</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.798793306654853e-09</v>
+        <v>2.895233487623766e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10058.27340595783</v>
+        <v>7.676504217896462</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>2.895233487623766e-06</v>
+        <v>1.839450309355944</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.676504217896462</v>
+        <v>0.000170612394862477</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.839450309355944</v>
+        <v>8.900135697522629</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.000170612394862477</v>
+        <v>0.9626950488753451</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.900135697522629</v>
+        <v>0.6784925845841935</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9626950488753451</v>
+        <v>480</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6784925845841935</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>480</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>20.7534095450308</v>
       </c>
     </row>
@@ -7400,72 +7334,66 @@
         <v>1.623072484871868e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.06532132473798184</v>
+        <v>5.386112872020125e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.192082859809646</v>
+        <v>2.333029772272708e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.386112872020125e-07</v>
+        <v>-0.05421415299535022</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.333029772272708e-06</v>
+        <v>0.020552820943431</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05421415299535022</v>
+        <v>0.003361511711684854</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.020552820943431</v>
+        <v>1.934613980471283</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003361511711684854</v>
+        <v>4.30558949388957</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.960135739454393</v>
+        <v>8.472916207049463</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>4.30558949388957</v>
+        <v>1.965750701091223e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.472916207049463</v>
+        <v>71006060011.26842</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.965750701091223e-18</v>
+        <v>1.699245266271005e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>71006060011.26842</v>
+        <v>9911.040927329299</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.699245266271005e-09</v>
+        <v>2.604191017089632e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>9911.040927329299</v>
+        <v>6.161835139390509</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2.604191017089632e-06</v>
+        <v>2.195248147950912</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.161835139390509</v>
+        <v>9.887647736762121e-05</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.195248147950912</v>
+        <v>8.911844927070312</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>9.887647736762121e-05</v>
+        <v>0.9627291070025031</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.911844927070312</v>
+        <v>0.6841263686580936</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9627291070025031</v>
+        <v>454</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6841263686580936</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>454</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>21.06693873056507</v>
       </c>
     </row>
@@ -7480,72 +7408,66 @@
         <v>1.622536383778585e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.08002813000428025</v>
+        <v>5.458434059354566e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.177285214560956</v>
+        <v>2.324085123870431e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.458434059354566e-07</v>
+        <v>-0.0558912455664644</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.324085123870431e-06</v>
+        <v>0.01484282485049807</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0558912455664644</v>
+        <v>0.003344356110095723</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.01484282485049807</v>
+        <v>1.931880064104496</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003344356110095723</v>
+        <v>4.069078191248134</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.955485390772123</v>
+        <v>8.507710542915309</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.069078191248134</v>
+        <v>1.949704756232719e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.507710542915309</v>
+        <v>71068006785.19473</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.949704756232719e-18</v>
+        <v>1.692919201926783e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>71068006785.19473</v>
+        <v>9847.298921065318</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.692919201926783e-09</v>
+        <v>2.737290400394791e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9847.298921065318</v>
+        <v>5.850414668949629</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.737290400394791e-06</v>
+        <v>2.261691463129476</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>5.850414668949629</v>
+        <v>9.369020150941012e-05</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.261691463129476</v>
+        <v>8.902490753531175</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>9.369020150941012e-05</v>
+        <v>0.9632790398363746</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.902490753531175</v>
+        <v>0.6769413269844213</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9632790398363746</v>
+        <v>428</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6769413269844213</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>428</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>21.54035980246849</v>
       </c>
     </row>
@@ -7560,72 +7482,66 @@
         <v>1.617432856432127e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.08757426507545218</v>
+        <v>5.525981943744449e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.171522541433855</v>
+        <v>2.314935355573789e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.525981943744449e-07</v>
+        <v>-0.05693806543777796</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.314935355573789e-06</v>
+        <v>0.01229713045768147</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05693806543777796</v>
+        <v>0.003393453637124159</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01229713045768147</v>
+        <v>1.934427175933298</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003393453637124159</v>
+        <v>4.156493285150192</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.95629363654806</v>
+        <v>8.495251426562911</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.156493285150192</v>
+        <v>1.955427814960824e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.495251426562911</v>
+        <v>71111030619.81097</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.955427814960824e-18</v>
+        <v>1.693916873454804e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>71111030619.81097</v>
+        <v>9888.165676782952</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.693916873454804e-09</v>
+        <v>3.059800534009918e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9888.165676782952</v>
+        <v>6.129671961009864</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.059800534009918e-06</v>
+        <v>2.106713382220335</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.129671961009864</v>
+        <v>0.0001149655132383667</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.106713382220335</v>
+        <v>8.900173812576329</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0001149655132383667</v>
+        <v>0.9636884271195107</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.900173812576329</v>
+        <v>0.6746289935206728</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9636884271195107</v>
+        <v>406</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6746289935206728</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>406</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>21.41484085674308</v>
       </c>
     </row>
@@ -7640,72 +7556,66 @@
         <v>1.609459497699525e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.09036845848155774</v>
+        <v>5.554830693065339e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.173470628023957</v>
+        <v>2.305695598555702e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.554830693065339e-07</v>
+        <v>-0.05752049328307203</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.305695598555702e-06</v>
+        <v>0.01174864382551292</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05752049328307203</v>
+        <v>0.003446855881149065</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01174864382551292</v>
+        <v>1.932250405793781</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003446855881149065</v>
+        <v>4.039461638411105</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.952770799383691</v>
+        <v>8.445090610343346</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.039461638411105</v>
+        <v>1.978725884155461e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.445090610343346</v>
+        <v>70232865052.9852</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.978725884155461e-18</v>
+        <v>1.7149761292867e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>70232865052.9852</v>
+        <v>9760.37278611452</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.7149761292867e-09</v>
+        <v>3.104753811210067e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>9760.37278611452</v>
+        <v>6.894905475485325</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>3.104753811210067e-06</v>
+        <v>1.923709625240017</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.894905475485325</v>
+        <v>0.000147599131560286</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.923709625240017</v>
+        <v>8.901575306842716</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.000147599131560286</v>
+        <v>0.9633888658465156</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.901575306842716</v>
+        <v>0.7093834457738972</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9633888658465156</v>
+        <v>408</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7093834457738972</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>408</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>20.91531327959165</v>
       </c>
     </row>
@@ -7720,72 +7630,66 @@
         <v>1.599780944801218e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.09030328672851537</v>
+        <v>5.55074232620633e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.181182191864094</v>
+        <v>2.296437425610602e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.55074232620633e-07</v>
+        <v>-0.05782683286586727</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.296437425610602e-06</v>
+        <v>0.01185353017790771</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05782683286586727</v>
+        <v>0.003484584550619226</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01185353017790771</v>
+        <v>1.9307556808416</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003484584550619226</v>
+        <v>4.140013299512325</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.952635593442967</v>
+        <v>9.125119323922618</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4.140013299512325</v>
+        <v>1.997747191367753e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>9.125119323922618</v>
+        <v>70566030106.58206</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.997747191367753e-18</v>
+        <v>1.708356019355499e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>70566030106.58206</v>
+        <v>9947.911203879108</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.708356019355499e-09</v>
+        <v>2.701288016227384e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>9947.911203879108</v>
+        <v>7.010498364043401</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>2.701288016227384e-06</v>
+        <v>1.96432801160189</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.010498364043401</v>
+        <v>0.0001327604379890759</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.96432801160189</v>
+        <v>8.919811371120277</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0001327604379890759</v>
+        <v>0.9628834451530723</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.919811371120277</v>
+        <v>0.6961391711625446</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9628834451530723</v>
+        <v>394</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6961391711625446</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>394</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>20.67614662196843</v>
       </c>
     </row>
@@ -7800,72 +7704,66 @@
         <v>1.589111406137403e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.08868941826333614</v>
+        <v>5.526181789647058e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.193078140653972</v>
+        <v>2.287204352445771e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.526181789647058e-07</v>
+        <v>-0.0579581474735856</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.287204352445771e-06</v>
+        <v>0.01209017370377133</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0579581474735856</v>
+        <v>0.003505380561758211</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.01209017370377133</v>
+        <v>1.925200056287794</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003505380561758211</v>
+        <v>4.084413413935989</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.951050816922731</v>
+        <v>9.008723502568319</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.084413413935989</v>
+        <v>2.049703854351654e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>9.008723502568319</v>
+        <v>69090020720.46205</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.049703854351654e-18</v>
+        <v>1.740119582502488e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>69090020720.46205</v>
+        <v>9784.119843658025</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.740119582502488e-09</v>
+        <v>2.374765364553904e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>9784.119843658025</v>
+        <v>6.003206711284991</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>2.374765364553904e-06</v>
+        <v>2.290739142614386</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.003206711284991</v>
+        <v>8.558295978637093e-05</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.290739142614386</v>
+        <v>8.938226730495682</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>8.558295978637093e-05</v>
+        <v>0.9619420565483568</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.938226730495682</v>
+        <v>0.6837379792475881</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9619420565483568</v>
+        <v>391</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6837379792475881</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>391</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>20.68570726096284</v>
       </c>
     </row>
@@ -7880,72 +7778,66 @@
         <v>1.577945499225299e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.0864747088265327</v>
+        <v>5.488186797248508e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.20777613493326</v>
+        <v>2.278024269434609e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.488186797248508e-07</v>
+        <v>-0.05796754760679039</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.278024269434609e-06</v>
+        <v>0.01227078835599213</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05796754760679039</v>
+        <v>0.003510795678108206</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.01227078835599213</v>
+        <v>1.928444763180075</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003510795678108206</v>
+        <v>4.214352534588705</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.952339064359163</v>
+        <v>8.609457778196052</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.214352534588705</v>
+        <v>2.52977879989661e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.609457778196052</v>
+        <v>56542871194.11288</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.52977879989661e-18</v>
+        <v>2.12662627121544e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>56542871194.11288</v>
+        <v>8087.946397643002</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.12662627121544e-09</v>
+        <v>2.546554355325043e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8087.946397643002</v>
+        <v>5.820594206250527</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.546554355325043e-06</v>
+        <v>2.435488257666331</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>5.820594206250527</v>
+        <v>8.627552204236953e-05</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.435488257666331</v>
+        <v>8.928973346012958</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>8.627552204236953e-05</v>
+        <v>0.9613924491707767</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.928973346012958</v>
+        <v>0.7112062666384903</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9613924491707767</v>
+        <v>405</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7112062666384903</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>405</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>20.67458463163694</v>
       </c>
     </row>
@@ -7960,72 +7852,66 @@
         <v>1.566703445217674e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.08439299410221596</v>
+        <v>5.441253576413301e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.223830440566164</v>
+        <v>2.268915306760632e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.441253576413301e-07</v>
+        <v>-0.05788466258885878</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.268915306760632e-06</v>
+        <v>0.01231691143689895</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05788466258885878</v>
+        <v>0.003502265316431762</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01231691143689895</v>
+        <v>1.927229412041481</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003502265316431762</v>
+        <v>4.281657939869736</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.949006943145307</v>
+        <v>8.266800947576137</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>4.281657939869736</v>
+        <v>2.743842563122362e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.266800947576137</v>
+        <v>52454976067.25647</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.743842563122362e-18</v>
+        <v>2.289749016453723e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>52454976067.25647</v>
+        <v>7549.750075581675</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.289749016453723e-09</v>
+        <v>3.35653215191477e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>7549.750075581675</v>
+        <v>7.887936103721734</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>3.35653215191477e-06</v>
+        <v>1.988041397808116</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.887936103721734</v>
+        <v>0.0002088418729819936</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.988041397808116</v>
+        <v>8.86059610263643</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0002088418729819936</v>
+        <v>0.9615507598020462</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.86059610263643</v>
+        <v>0.7084547085021647</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9615507598020462</v>
+        <v>419</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.7084547085021647</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>419</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>20.52990486406672</v>
       </c>
     </row>
@@ -8040,72 +7926,66 @@
         <v>1.555722020316951e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.08309330031786524</v>
+        <v>5.387135059689627e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.23981880840338</v>
+        <v>2.259890781108372e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.387135059689627e-07</v>
+        <v>-0.05771384088825492</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.259890781108372e-06</v>
+        <v>0.01220680409448263</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05771384088825492</v>
+        <v>0.003479763483205232</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01220680409448263</v>
+        <v>1.922387257631256</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003479763483205232</v>
+        <v>3.565206430498749</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.947166007079184</v>
+        <v>8.126532047288343</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.565206430498749</v>
+        <v>2.839380825198058e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.126532047288343</v>
+        <v>50497204254.73408</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.839380825198058e-18</v>
+        <v>2.376549586989511e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>50497204254.73408</v>
+        <v>7240.329214918972</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.376549586989511e-09</v>
+        <v>4.769143309999752e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7240.329214918972</v>
+        <v>9.919308590481204</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>4.769143309999752e-06</v>
+        <v>1.572724586056054</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.919308590481204</v>
+        <v>0.0004692488054683871</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.572724586056054</v>
+        <v>8.691176582831826</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0004692488054683871</v>
+        <v>0.9599114388389623</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.691176582831826</v>
+        <v>0.7014839246485775</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9599114388389623</v>
+        <v>436</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.7014839246485775</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>19.51483196715528</v>
       </c>
     </row>
@@ -8120,72 +8000,66 @@
         <v>1.545259754553967e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.08315747462111951</v>
+        <v>5.328369464500038e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.254391800803691</v>
+        <v>2.25096079567754e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.328369464500038e-07</v>
+        <v>-0.05747097134904708</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.25096079567754e-06</v>
+        <v>0.01195563699157551</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05747097134904708</v>
+        <v>0.003445688660074305</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01195563699157551</v>
+        <v>1.924252766818344</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003445688660074305</v>
+        <v>3.751627795445827</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.948840483918234</v>
+        <v>8.085044620441009</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.751627795445827</v>
+        <v>2.868595466416226e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.085044620441009</v>
+        <v>50132404808.63806</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.868595466416226e-18</v>
+        <v>2.396237985365924e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>50132404808.63806</v>
+        <v>7209.52053886244</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.396237985365924e-09</v>
+        <v>6.138529942923577e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>7209.52053886244</v>
+        <v>8.968044124741077</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>6.138529942923577e-06</v>
+        <v>1.440836481041613</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.968044124741077</v>
+        <v>0.00049369627615999</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.440836481041613</v>
+        <v>8.504148445317135</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.00049369627615999</v>
+        <v>0.9600760220287363</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.504148445317135</v>
+        <v>0.7164064719284431</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9600760220287363</v>
+        <v>465</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7164064719284431</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>465</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>17.8575487130694</v>
       </c>
     </row>
@@ -8200,72 +8074,66 @@
         <v>1.535463077437066e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.08497730803648576</v>
+        <v>5.268111247584984e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.266509860308538</v>
+        <v>2.242130329984458e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.268111247584984e-07</v>
+        <v>-0.05718364834388678</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.242130329984458e-06</v>
+        <v>0.01162127827787831</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05718364834388678</v>
+        <v>0.003404852165911412</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01162127827787831</v>
+        <v>1.925379509412163</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003404852165911412</v>
+        <v>4.386765432194913</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.953067013870921</v>
+        <v>7.748791067422831</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>4.386765432194913</v>
+        <v>2.628483338395709e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>7.748791067422831</v>
+        <v>53541823151.44858</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.628483338395709e-18</v>
+        <v>2.241129628366637e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>53541823151.44858</v>
+        <v>7535.143698874454</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.241129628366637e-09</v>
+        <v>7.742789594041439e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7535.143698874454</v>
+        <v>7.59434830924591</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>7.742789594041439e-06</v>
+        <v>1.378335395174672</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.59434830924591</v>
+        <v>0.000446558624513122</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.378335395174672</v>
+        <v>8.397404680412448</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.000446558624513122</v>
+        <v>0.9600644518441735</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.397404680412448</v>
+        <v>0.6791436426857858</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9600644518441735</v>
+        <v>498</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6791436426857858</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>498</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>16.68623465449496</v>
       </c>
     </row>
@@ -8280,72 +8148,66 @@
         <v>1.526383862503548e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.08877865108746713</v>
+        <v>5.207586664507007e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.275447631467908</v>
+        <v>2.233400553087217e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.207586664507007e-07</v>
+        <v>-0.05686292946423592</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.233400553087217e-06</v>
+        <v>0.01124355333217536</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05686292946423592</v>
+        <v>0.003359635488043346</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01124355333217536</v>
+        <v>1.92110613619433</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003359635488043346</v>
+        <v>4.632116272100948</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.958624141857563</v>
+        <v>7.418753549837602</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.632116272100948</v>
+        <v>2.469837936049232e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>7.418753549837602</v>
+        <v>54435132327.56866</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.469837936049232e-18</v>
+        <v>2.179028404695328e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>54435132327.56866</v>
+        <v>7318.583344608003</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.179028404695328e-09</v>
+        <v>8.53684261587588e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>7318.583344608003</v>
+        <v>7.058839116111447</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>8.53684261587588e-06</v>
+        <v>1.629268453245896</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.058839116111447</v>
+        <v>0.0004253670469166664</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.629268453245896</v>
+        <v>8.396321362354966</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0004253670469166664</v>
+        <v>0.957054063951516</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.396321362354966</v>
+        <v>0.6556273713921776</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.957054063951516</v>
+        <v>504</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.6556273713921776</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>504</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>16.44751701115822</v>
       </c>
     </row>
@@ -8360,72 +8222,66 @@
         <v>1.518029490012601e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.09474284416193615</v>
+        <v>5.146664394393588e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.28062061360369</v>
+        <v>2.224772040419203e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.146664394393588e-07</v>
+        <v>-0.05650695253231445</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.224772040419203e-06</v>
+        <v>0.01083869960138708</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05650695253231445</v>
+        <v>0.003310343716714292</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01083869960138708</v>
+        <v>1.914658409235008</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003310343716714292</v>
+        <v>4.423273094387827</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.95322574585986</v>
+        <v>7.286272655765164</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>4.423273094387827</v>
+        <v>2.468586050238036e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7.286272655765164</v>
+        <v>54595574438.31551</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.468586050238036e-18</v>
+        <v>2.175859550117908e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>54595574438.31551</v>
+        <v>7358.057040997955</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.175859550117908e-09</v>
+        <v>8.666541475734996e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>7358.057040997955</v>
+        <v>8.664417188265626</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>8.666541475734996e-06</v>
+        <v>1.68765227758111</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.664417188265626</v>
+        <v>0.0006506156868240797</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.68765227758111</v>
+        <v>8.45390427353067</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0006506156868240797</v>
+        <v>0.9567423183694419</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>8.45390427353067</v>
+        <v>0.6694804309525999</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9567423183694419</v>
+        <v>512</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.6694804309525999</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>512</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>16.84327308151724</v>
       </c>
     </row>
@@ -8440,72 +8296,66 @@
         <v>1.510359589691257e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1029746277123212</v>
+        <v>5.087563225406601e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.281613737998122</v>
+        <v>2.216244028431904e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.087563225406601e-07</v>
+        <v>-0.05614155791513142</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.216244028431904e-06</v>
+        <v>0.01047273259901386</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05614155791513142</v>
+        <v>0.003261410482835528</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.01047273259901386</v>
+        <v>1.918335594638225</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003261410482835528</v>
+        <v>4.053011312976147</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.956552197931707</v>
+        <v>7.391318227686621</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>4.053011312976147</v>
+        <v>2.398917464128616e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>7.391318227686621</v>
+        <v>55613269713.05923</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.398917464128616e-18</v>
+        <v>2.142797235846262e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>55613269713.05923</v>
+        <v>7419.457737962578</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.142797235846262e-09</v>
+        <v>9.688340844486261e-06</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7419.457737962578</v>
+        <v>11.30275708574625</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>9.688340844486261e-06</v>
+        <v>1.34592742000366</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.30275708574625</v>
+        <v>0.001237707997932289</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.34592742000366</v>
+        <v>8.393501238687312</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.001237707997932289</v>
+        <v>0.9572114605785893</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>8.393501238687312</v>
+        <v>0.6573494482339736</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9572114605785893</v>
+        <v>516</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6573494482339736</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>516</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>16.76785601032757</v>
       </c>
     </row>
@@ -8520,72 +8370,66 @@
         <v>1.503260594761088e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1133656499480154</v>
+        <v>5.033037294766218e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.278316780779447</v>
+        <v>2.207810919345553e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.033037294766218e-07</v>
+        <v>-0.05580195009993943</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.207810919345553e-06</v>
+        <v>0.01020079889996185</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05580195009993943</v>
+        <v>0.003217804234247085</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.01020079889996185</v>
+        <v>1.913261942467321</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003217804234247085</v>
+        <v>3.831558848969145</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.952967074772257</v>
+        <v>7.433176777884206</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.831558848969145</v>
+        <v>2.371975424320146e-18</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>7.433176777884206</v>
+        <v>56101917167.11418</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.371975424320146e-18</v>
+        <v>2.121791305106091e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>56101917167.11418</v>
+        <v>7465.615010394794</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.121791305106091e-09</v>
+        <v>1.003633972733767e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7465.615010394794</v>
+        <v>11.19142276403938</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>1.003633972733767e-05</v>
+        <v>1.175394774752251</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.19142276403938</v>
+        <v>0.00125703091095038</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.175394774752251</v>
+        <v>8.253124534880623</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.00125703091095038</v>
+        <v>0.9586843933668232</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>8.253124534880623</v>
+        <v>0.6570639948050654</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9586843933668232</v>
+        <v>532</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.6570639948050654</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>532</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>16.18436164039861</v>
       </c>
     </row>
@@ -8600,72 +8444,66 @@
         <v>1.496586584217684e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1256825809883209</v>
+        <v>4.983858182295775e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.270780330833038</v>
+        <v>2.199464320118885e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.983858182295775e-07</v>
+        <v>-0.05550277580290354</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.199464320118885e-06</v>
+        <v>0.01005520202784971</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05550277580290354</v>
+        <v>0.003181603663678804</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.01005520202784971</v>
+        <v>1.906711569466518</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.003181603663678804</v>
+        <v>4.561519352214572</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.948786981471876</v>
+        <v>7.337612833718859</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>4.561519352214572</v>
+        <v>2.434162248435367e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>7.337612833718859</v>
+        <v>54295155131.29747</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.434162248435367e-18</v>
+        <v>2.186864810775888e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>54295155131.29747</v>
+        <v>7175.822363886401</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.186864810775888e-09</v>
+        <v>1.158270691190892e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>7175.822363886401</v>
+        <v>9.256846240799709</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>1.158270691190892e-05</v>
+        <v>1.229225080522684</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.256846240799709</v>
+        <v>0.0009925129160550945</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.229225080522684</v>
+        <v>8.19077917685993</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0009925129160550945</v>
+        <v>0.9569425378170586</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>8.19077917685993</v>
+        <v>0.6884103857413606</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9569425378170586</v>
+        <v>518</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.6884103857413606</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>518</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>15.51350840449299</v>
       </c>
     </row>
@@ -8680,72 +8518,66 @@
         <v>1.490112011414204e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.1396206824432563</v>
+        <v>4.941106915268816e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.259327692102196</v>
+        <v>2.191194523183454e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.941106915268816e-07</v>
+        <v>-0.05526530032117002</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.191194523183454e-06</v>
+        <v>0.01008002794249969</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05526530032117002</v>
+        <v>0.00315585987019366</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.01008002794249969</v>
+        <v>1.910372753854591</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.00315585987019366</v>
+        <v>3.815600812131064</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.950532204243496</v>
+        <v>8.898180381593694</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.815600812131064</v>
+        <v>2.584243957720043e-18</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>8.898180381593694</v>
+        <v>51039960950.13917</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.584243957720043e-18</v>
+        <v>2.334146652863086e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>51039960950.13917</v>
+        <v>6732.156082833029</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.334146652863086e-09</v>
+        <v>9.476301545641756e-06</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6732.156082833029</v>
+        <v>7.955566383716841</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>9.476301545641756e-06</v>
+        <v>1.376714149639351</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.955566383716841</v>
+        <v>0.0005997649468749489</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.376714149639351</v>
+        <v>8.356755133712952</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.0005997649468749489</v>
+        <v>0.9571654328955399</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>8.356755133712952</v>
+        <v>0.7089731590500541</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9571654328955399</v>
+        <v>502</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.7089731590500541</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>502</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>16.18465667213486</v>
       </c>
     </row>
@@ -8760,72 +8592,66 @@
         <v>1.483531098004889e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1547388180644812</v>
+        <v>4.907633912036033e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.244566236027106</v>
+        <v>2.18298882446024e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.907633912036033e-07</v>
+        <v>-0.05513382549714378</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.18298882446024e-06</v>
+        <v>0.01025334307119996</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05513382549714378</v>
+        <v>0.003144939718922364</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.01025334307119996</v>
+        <v>1.910814593818342</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003144939718922364</v>
+        <v>4.070402909093362</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.950005244510154</v>
+        <v>8.751888758837378</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>4.070402909093362</v>
+        <v>2.671359531230944e-18</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>8.751888758837378</v>
+        <v>50847823156.91988</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.671359531230944e-18</v>
+        <v>2.351024537036592e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>50847823156.91988</v>
+        <v>6906.803059379056</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.351024537036592e-09</v>
+        <v>7.801083773786983e-06</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6906.803059379056</v>
+        <v>7.88263800354854</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>7.801083773786983e-06</v>
+        <v>1.698819589649374</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.88263800354854</v>
+        <v>0.0004847280001293104</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.698819589649374</v>
+        <v>8.50500167192321</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0004847280001293104</v>
+        <v>0.9570001296438433</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>8.50500167192321</v>
+        <v>0.7133790449147563</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9570001296438433</v>
+        <v>500</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.7133790449147563</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>17.03562049604232</v>
       </c>
     </row>
@@ -8840,72 +8666,66 @@
         <v>1.476460812726049e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1703482572041678</v>
+        <v>4.886625043987315e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.227446161143171</v>
+        <v>2.174828771305339e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.886625043987315e-07</v>
+        <v>-0.05515993412906035</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.174828771305339e-06</v>
+        <v>0.01049695029974051</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05515993412906035</v>
+        <v>0.003152952730162914</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.01049695029974051</v>
+        <v>1.90939971530583</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003152952730162914</v>
+        <v>3.845795979185874</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.950707856116116</v>
+        <v>8.519008772565893</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.845795979185874</v>
+        <v>2.819407102075247e-18</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>8.519008772565893</v>
+        <v>48110215829.43198</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.819407102075247e-18</v>
+        <v>2.477860652600451e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>48110215829.43198</v>
+        <v>6525.779568068183</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.477860652600451e-09</v>
+        <v>7.863232981323321e-06</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>6525.779568068183</v>
+        <v>9.430998404337419</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>7.863232981323321e-06</v>
+        <v>1.498750440965724</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.430998404337419</v>
+        <v>0.0006993852783153883</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.498750440965724</v>
+        <v>8.494026810431343</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0006993852783153883</v>
+        <v>0.9567431271828677</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>8.494026810431343</v>
+        <v>0.7223397219779305</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9567431271828677</v>
+        <v>450</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.7223397219779305</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>17.17448557579347</v>
       </c>
     </row>
@@ -8920,72 +8740,66 @@
         <v>1.46840801747399e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.1855349898888626</v>
+        <v>4.879686479085463e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.209467048805074</v>
+        <v>2.166692298885833e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.879686479085463e-07</v>
+        <v>-0.05538278162679672</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.166692298885833e-06</v>
+        <v>0.01065895271801335</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05538278162679672</v>
+        <v>0.003181090520126362</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.01065895271801335</v>
+        <v>1.911985745951889</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003181090520126362</v>
+        <v>3.935088093874367</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.9545188425675</v>
+        <v>8.306944072339224</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.935088093874367</v>
+        <v>2.96519560179128e-18</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>8.306944072339224</v>
+        <v>45477657958.97285</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.96519560179128e-18</v>
+        <v>2.625296558408056e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45477657958.97285</v>
+        <v>6132.669059252813</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.625296558408056e-09</v>
+        <v>7.400691868487909e-06</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>6132.669059252813</v>
+        <v>10.48068971638006</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>7.400691868487909e-06</v>
+        <v>1.243983079481096</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.48068971638006</v>
+        <v>0.0008129279394847259</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.243983079481096</v>
+        <v>8.446047506236411</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0008129279394847259</v>
+        <v>0.9571290663414456</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>8.446047506236411</v>
+        <v>0.6953255312317398</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9571290663414456</v>
+        <v>430</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.6953255312317398</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>430</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>17.09834526361668</v>
       </c>
     </row>
@@ -9000,72 +8814,66 @@
         <v>1.458775635778027e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1990551910418363</v>
+        <v>4.888662417331095e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.192942362638039</v>
+        <v>2.158553780636819e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.888662417331095e-07</v>
+        <v>-0.05585026296558606</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.158553780636819e-06</v>
+        <v>0.01050798731670586</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05585026296558606</v>
+        <v>0.003229947361921185</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.01050798731670586</v>
+        <v>1.921233459249843</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003229947361921185</v>
+        <v>3.656174181052289</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.960485852751421</v>
+        <v>8.134904241947226</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.656174181052289</v>
+        <v>3.091939803405859e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>8.134904241947226</v>
+        <v>43368336529.01431</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.091939803405859e-18</v>
+        <v>2.759628510436275e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>43368336529.01431</v>
+        <v>5815.359381791003</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.759628510436275e-09</v>
+        <v>6.40575860062365e-06</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>5815.359381791003</v>
+        <v>9.809412496774252</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>6.40575860062365e-06</v>
+        <v>1.330792145143374</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.809412496774252</v>
+        <v>0.0006163913894931246</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.330792145143374</v>
+        <v>8.542965046004033</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.0006163913894931246</v>
+        <v>0.9575021665194504</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>8.542965046004033</v>
+        <v>0.6814422513865966</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9575021665194504</v>
+        <v>401</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.6814422513865966</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>401</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>17.27769659577673</v>
       </c>
     </row>
@@ -9080,72 +8888,66 @@
         <v>1.447089039707513e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2097201743083601</v>
+        <v>4.895686999921089e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.180583720149384</v>
+        <v>2.150397661497319e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.895686999921089e-07</v>
+        <v>-0.05638261442589879</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.150397661497319e-06</v>
+        <v>0.01039930259222543</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05638261442589879</v>
+        <v>0.003287403239248133</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.01039930259222543</v>
+        <v>1.922218680235716</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003287403239248133</v>
+        <v>3.725599502200874</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.960708959694426</v>
+        <v>7.095196393356013</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.725599502200874</v>
+        <v>3.159769610936042e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>7.095196393356013</v>
+        <v>42008524728.54749</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.159769610936042e-18</v>
+        <v>2.848807656881883e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>42008524728.54749</v>
+        <v>5576.096462284076</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.848807656881883e-09</v>
+        <v>3.758820075449505e-06</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>5576.096462284076</v>
+        <v>8.115633392984764</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>3.758820075449505e-06</v>
+        <v>1.648378440993006</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.115633392984764</v>
+        <v>0.0002475690662217115</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.648378440993006</v>
+        <v>8.780134449327818</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0002475690662217115</v>
+        <v>0.9574109059139703</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>8.780134449327818</v>
+        <v>0.7006843463085715</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9574109059139703</v>
+        <v>361</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.7006843463085715</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>361</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>18.74008424286796</v>
       </c>
     </row>
@@ -9160,72 +8962,66 @@
         <v>1.433524120129423e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.2177847503170943</v>
+        <v>4.878263346770388e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.173078674598173</v>
+        <v>2.142249058396033e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.878263346770388e-07</v>
+        <v>-0.05671426555999952</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.142249058396033e-06</v>
+        <v>0.01084932384152234</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05671426555999952</v>
+        <v>0.003334411869675838</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.01084932384152234</v>
+        <v>1.918517670390169</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.003334411869675838</v>
+        <v>3.271319771387936</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.960511667321678</v>
+        <v>5.977148722558971</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.271319771387936</v>
+        <v>3.98723436414817e-18</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>5.977148722558971</v>
+        <v>32919508111.57926</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.98723436414817e-18</v>
+        <v>3.629743072924836e-09</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>32919508111.57926</v>
+        <v>4320.942014071864</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>3.629743072924836e-09</v>
+        <v>4.245764939898737e-06</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>4320.942014071864</v>
+        <v>8.758685024544464</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>4.245764939898737e-06</v>
+        <v>1.885791959907889</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.758685024544464</v>
+        <v>0.0003257120034900444</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.885791959907889</v>
+        <v>8.761135829001304</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.0003257120034900444</v>
+        <v>0.9565629992065544</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>8.761135829001304</v>
+        <v>0.6906201044943272</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9565629992065544</v>
+        <v>315</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.6906201044943272</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>19.05981013277437</v>
       </c>
     </row>
@@ -9240,72 +9036,66 @@
         <v>1.418523150447358e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.2243926346620217</v>
+        <v>4.837035246778506e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.169511380728138</v>
+        <v>2.134150030540124e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.837035246778506e-07</v>
+        <v>-0.05682999207231859</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.134150030540124e-06</v>
+        <v>0.01161508475963254</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05682999207231859</v>
+        <v>0.003364698053986195</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.01161508475963254</v>
+        <v>1.926865958654475</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.003364698053986195</v>
+        <v>3.565954001995929</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.961895590939059</v>
+        <v>5.593122376788358</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.565954001995929</v>
+        <v>5.335263975143381e-18</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.593122376788358</v>
+        <v>24680876243.15751</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5.335263975143381e-18</v>
+        <v>4.853521795070773e-09</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>24680876243.15751</v>
+        <v>3249.952853424713</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.853521795070773e-09</v>
+        <v>1.228710183378512e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>3249.952853424713</v>
+        <v>10.76959046711177</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>1.228710183378512e-05</v>
+        <v>1.430177433112017</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.76959046711177</v>
+        <v>0.001425108187673428</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.430177433112017</v>
+        <v>8.181615894272824</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.001425108187673428</v>
+        <v>0.9582619255565181</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>8.181615894272824</v>
+        <v>0.7081193124155463</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9582619255565181</v>
+        <v>272</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.7081193124155463</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>16.38331862188187</v>
       </c>
     </row>
@@ -9320,72 +9110,66 @@
         <v>1.402380070165667e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2306141127159166</v>
+        <v>4.777127066582054e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.168902183051765</v>
+        <v>2.126135923225029e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.777127066582054e-07</v>
+        <v>-0.05677245141406598</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.126135923225029e-06</v>
+        <v>0.01251854674036803</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05677245141406598</v>
+        <v>0.003379910250421979</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.01251854674036803</v>
+        <v>1.927828297596923</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.003379910250421979</v>
+        <v>3.288042754368916</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.962940788556106</v>
+        <v>5.288550916208262</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>3.288042754368916</v>
+        <v>5.96748279661235e-18</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>5.288550916208262</v>
+        <v>21978441320.71408</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>5.96748279661235e-18</v>
+        <v>5.45106789602799e-09</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>21978441320.71408</v>
+        <v>2882.603801005772</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>5.45106789602799e-09</v>
+        <v>3.028148229993453e-05</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>2882.603801005772</v>
+        <v>11.93704324935912</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>3.028148229993453e-05</v>
+        <v>1.144261615833727</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.93704324935912</v>
+        <v>0.004314899303909331</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.144261615833727</v>
+        <v>7.315067495667507</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.004314899303909331</v>
+        <v>0.9587947771492793</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>7.315067495667507</v>
+        <v>0.7144978332637004</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9587947771492793</v>
+        <v>219</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.7144978332637004</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>219</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>13.16707803477411</v>
       </c>
     </row>
@@ -9400,72 +9184,66 @@
         <v>1.385287368573884e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2373291491190389</v>
+        <v>4.702295553250903e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.17028375227292</v>
+        <v>2.118234448634092e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.702295553250903e-07</v>
+        <v>-0.05657265622961147</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.118234448634092e-06</v>
+        <v>0.01350604574358568</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05657265622961147</v>
+        <v>0.003382925380800437</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.01350604574358568</v>
+        <v>1.926682785344474</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.003382925380800437</v>
+        <v>3.266072663809794</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.961438752599552</v>
+        <v>5.482890186037253</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>3.266072663809794</v>
+        <v>7.465096850337619e-18</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.482890186037253</v>
+        <v>17616742162.41315</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>7.465096850337619e-18</v>
+        <v>6.813130723176025e-09</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>17616742162.41315</v>
+        <v>2316.789854436465</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.813130723176025e-09</v>
+        <v>4.489700543037379e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>2316.789854436465</v>
+        <v>12.27188859273454</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>4.489700543037379e-05</v>
+        <v>1.051101616010877</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>12.27188859273454</v>
+        <v>0.00676145532856004</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.051101616010877</v>
+        <v>6.764191183770704</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.00676145532856004</v>
+        <v>0.9587547433758982</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>6.764191183770704</v>
+        <v>0.7182511650016162</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9587547433758982</v>
+        <v>176</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.7182511650016162</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>176</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>11.42115604536352</v>
       </c>
     </row>
@@ -9480,72 +9258,66 @@
         <v>1.367304194596923e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2453030110926007</v>
+        <v>4.612820413157155e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.172857250942048</v>
+        <v>2.11046971762438e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.612820413157155e-07</v>
+        <v>-0.05622578244444863</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.11046971762438e-06</v>
+        <v>0.01471010421221499</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05622578244444863</v>
+        <v>0.003377746323408976</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.01471010421221499</v>
+        <v>1.925531253398695</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.003377746323408976</v>
+        <v>2.699914949366134</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.960686443195124</v>
+        <v>6.160489325715877</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.699914949366134</v>
+        <v>1.212238537300805e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>6.160489325715877</v>
+        <v>10708724508.64184</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.212238537300805e-17</v>
+        <v>1.118714209394304e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>10708724508.64184</v>
+        <v>1390.156127793172</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.118714209394304e-08</v>
+        <v>4.8995083684997e-05</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>1390.156127793172</v>
+        <v>12.48141133296023</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>4.8995083684997e-05</v>
+        <v>1.037407192467805</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.48141133296023</v>
+        <v>0.00763272992304042</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.037407192467805</v>
+        <v>6.674825699224146</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.00763272992304042</v>
+        <v>0.961303036235681</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>6.674825699224146</v>
+        <v>0.8198509492170855</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.961303036235681</v>
+        <v>138</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.8198509492170855</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>11.06910425552588</v>
       </c>
     </row>
@@ -9922,7 +9694,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.533094981150748</v>
+        <v>1.517696205858143</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.629463075921628</v>
@@ -10011,7 +9783,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.527385541652335</v>
+        <v>1.507585928289479</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.78384859955195</v>
@@ -10100,7 +9872,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.511293180598713</v>
+        <v>1.490281541819938</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.796146400602766</v>
@@ -10189,7 +9961,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.505912038907893</v>
+        <v>1.490602915654812</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.625199336736376</v>
@@ -10278,7 +10050,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.514763262947115</v>
+        <v>1.495028594293131</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.611732826482684</v>
@@ -10367,7 +10139,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.529330069328449</v>
+        <v>1.506902059838932</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.487742341231878</v>
@@ -10456,7 +10228,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.530640729641643</v>
+        <v>1.506075343615086</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.569200350679967</v>
@@ -10545,7 +10317,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540537856997151</v>
+        <v>1.512116093320556</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.722984956777612</v>
@@ -10634,7 +10406,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.555041880966353</v>
+        <v>1.528742601309977</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.784834685818091</v>
@@ -10723,7 +10495,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56470273565177</v>
+        <v>1.534789512816712</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.592483546129321</v>
@@ -10812,7 +10584,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.566922135650767</v>
+        <v>1.542451063337644</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.588833701455268</v>
@@ -10901,7 +10673,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.555553119163059</v>
+        <v>1.522052723235825</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.816328718078819</v>
@@ -10990,7 +10762,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.54465245753061</v>
+        <v>1.518369803268682</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.753142501185113</v>
@@ -11079,7 +10851,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.533989923179688</v>
+        <v>1.509511103471296</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.795793206910631</v>
@@ -11168,7 +10940,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.520388382585308</v>
+        <v>1.494513647952125</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.809509787631157</v>
@@ -11257,7 +11029,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.522464550740622</v>
+        <v>1.497008990596413</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.730488120404194</v>
@@ -11346,7 +11118,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.526948225119639</v>
+        <v>1.498893429493846</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.87887706343177</v>
@@ -11435,7 +11207,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.531129630904272</v>
+        <v>1.501582360444867</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.622281705630193</v>
@@ -11524,7 +11296,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539113497843828</v>
+        <v>1.502493422792381</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.726186570737222</v>
@@ -11613,7 +11385,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.531368452683304</v>
+        <v>1.498814300864557</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.69618775919665</v>
@@ -11702,7 +11474,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.55553713038158</v>
+        <v>1.51956134141761</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.690748653713844</v>
@@ -11791,7 +11563,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.555932847374779</v>
+        <v>1.51905247130803</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.779103446256403</v>
@@ -11880,7 +11652,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561225912672515</v>
+        <v>1.527951298732106</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.773907117446526</v>
@@ -11969,7 +11741,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.568252107563746</v>
+        <v>1.529851078088434</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.659599665455019</v>
@@ -12058,7 +11830,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577543024865781</v>
+        <v>1.542979091924058</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.497457378629658</v>
@@ -12147,7 +11919,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584208039428005</v>
+        <v>1.54607389308446</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.600105742417807</v>
@@ -12236,7 +12008,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.582068274952293</v>
+        <v>1.549846212252846</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.48175973387668</v>
@@ -12325,7 +12097,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570609322263737</v>
+        <v>1.543240301963764</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.731450320984522</v>
@@ -12414,7 +12186,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.58099254225464</v>
+        <v>1.56036630281901</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.774254058133714</v>
@@ -12503,7 +12275,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615140126681303</v>
+        <v>1.592143013112437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.858866223596551</v>
@@ -12592,7 +12364,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.640427506158732</v>
+        <v>1.612074057399506</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.755122774463474</v>
@@ -12681,7 +12453,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.642999482807024</v>
+        <v>1.62286441479571</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.806365525088377</v>
@@ -12770,7 +12542,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.641897881922806</v>
+        <v>1.624921418316804</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.7022649215386</v>
@@ -12859,7 +12631,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634294703082387</v>
+        <v>1.626473259146528</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.740583764520438</v>
@@ -12948,7 +12720,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.645858529064409</v>
+        <v>1.63219191797113</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.717736277124076</v>
@@ -13037,7 +12809,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.638289933312552</v>
+        <v>1.629376110255762</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.045761378347484</v>
@@ -13126,7 +12898,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628181436283082</v>
+        <v>1.624992328230699</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.906285531632835</v>
@@ -13215,7 +12987,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.63313940089392</v>
+        <v>1.631049687710201</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.692345722549391</v>
@@ -13304,7 +13076,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.641384574849798</v>
+        <v>1.633406187985452</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.827589306144644</v>
@@ -13393,7 +13165,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642884292085353</v>
+        <v>1.629871074711103</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.849054954744484</v>
@@ -13482,7 +13254,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637836107130135</v>
+        <v>1.627470870256811</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.759012580814776</v>
@@ -13571,7 +13343,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.656996745375951</v>
+        <v>1.6454471352812</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.992645221274305</v>
@@ -13660,7 +13432,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646066901834406</v>
+        <v>1.637485803487197</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.917521823858981</v>
@@ -13749,7 +13521,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.646010096059373</v>
+        <v>1.638037571423202</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.112211492616648</v>
@@ -13838,7 +13610,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.626756959550997</v>
+        <v>1.62193790837124</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.932612654128934</v>
@@ -13927,7 +13699,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.620523769173475</v>
+        <v>1.615910391886771</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.08206266959979</v>
@@ -14016,7 +13788,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.612007048816628</v>
+        <v>1.603052834343634</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.096264909326287</v>
@@ -14105,7 +13877,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.621541530758399</v>
+        <v>1.613553248845091</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.245738408905156</v>
@@ -14194,7 +13966,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624756107354876</v>
+        <v>1.620442546300437</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.069987993914126</v>
@@ -14283,7 +14055,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.627540788706898</v>
+        <v>1.625183637027492</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.231696632036369</v>
@@ -14372,7 +14144,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619454085096716</v>
+        <v>1.61826577784345</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.138496095126364</v>
@@ -14461,7 +14233,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.614689586513903</v>
+        <v>1.612004827876202</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.967353757897751</v>
@@ -14550,7 +14322,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.601177990357407</v>
+        <v>1.602777107888686</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.982559595700427</v>
@@ -14639,7 +14411,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.596606209027525</v>
+        <v>1.600798817559609</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.701044546118301</v>
@@ -14728,7 +14500,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.59274934456102</v>
+        <v>1.595954437222889</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.681751266440768</v>
@@ -14817,7 +14589,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.599995301460989</v>
+        <v>1.608301621179192</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.886554879310035</v>
@@ -14906,7 +14678,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.601058340159276</v>
+        <v>1.603654466638734</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.715705777562439</v>
@@ -14995,7 +14767,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624943711960754</v>
+        <v>1.61905628749288</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.990696949951003</v>
@@ -15084,7 +14856,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.612889408650117</v>
+        <v>1.609798757984569</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.762846293657255</v>
@@ -15173,7 +14945,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.631123854807135</v>
+        <v>1.623821235814536</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.727973794120222</v>
@@ -15262,7 +15034,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.633690598741572</v>
+        <v>1.63012719189221</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.833778621947781</v>
@@ -15351,7 +15123,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.634050439731713</v>
+        <v>1.628044836719062</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.699799656801563</v>
@@ -15440,7 +15212,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.633399803429413</v>
+        <v>1.631110076112628</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.72093962248379</v>
@@ -15529,7 +15301,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.606566303175391</v>
+        <v>1.607670727976809</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.755729417023653</v>
@@ -15618,7 +15390,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.608642797113798</v>
+        <v>1.606400495808106</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.909479083014368</v>
@@ -15707,7 +15479,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.600001027256056</v>
+        <v>1.597965572883495</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.880106978867776</v>
@@ -15796,7 +15568,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.612836774982715</v>
+        <v>1.609612460365915</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.835839792651552</v>
@@ -15885,7 +15657,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.616166562048683</v>
+        <v>1.606756040647758</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.811851629396065</v>
@@ -15974,7 +15746,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.590028860906662</v>
+        <v>1.589701742021906</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.920526248697063</v>
@@ -16063,7 +15835,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.610041906118368</v>
+        <v>1.605002817482103</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.508461700580145</v>
@@ -16152,7 +15924,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.596743097518635</v>
+        <v>1.58805426021696</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.885534709860583</v>
@@ -16241,7 +16013,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.59582827749965</v>
+        <v>1.591957616121807</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.884694669170548</v>
@@ -16330,7 +16102,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.600449417300606</v>
+        <v>1.594597164093159</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.518803829843435</v>
@@ -16419,7 +16191,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.58905784597352</v>
+        <v>1.5886778845757</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.816189236583772</v>
@@ -16508,7 +16280,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.560878603837828</v>
+        <v>1.560182751413405</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.892138379077333</v>
@@ -16597,7 +16369,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.554724450635154</v>
+        <v>1.55347556588858</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.766035791073542</v>
@@ -16686,7 +16458,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.567891810223643</v>
+        <v>1.562008277132995</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.419353600317979</v>
@@ -16775,7 +16547,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.565768818172611</v>
+        <v>1.560645498039668</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.436375250598606</v>
@@ -16864,7 +16636,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.575697128834562</v>
+        <v>1.573313003561533</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.834227520323691</v>
@@ -16953,7 +16725,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.57970356612262</v>
+        <v>1.577460421834841</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.688118157125179</v>
@@ -17042,7 +16814,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.570817768536465</v>
+        <v>1.572361243910375</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.875514466847803</v>
@@ -17328,7 +17100,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.693838399626756</v>
+        <v>1.675106109727603</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.764113467914817</v>
@@ -17417,7 +17189,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.659435851765838</v>
+        <v>1.643780167438495</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.550077295666815</v>
@@ -17506,7 +17278,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.644131179527281</v>
+        <v>1.626594117338651</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.595188537804559</v>
@@ -17595,7 +17367,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.650772999003098</v>
+        <v>1.638927991020818</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.53972461215831</v>
@@ -17684,7 +17456,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665113597858683</v>
+        <v>1.651349960961533</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.668822035706141</v>
@@ -17773,7 +17545,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.672745161988587</v>
+        <v>1.65876226013519</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.63658741559715</v>
@@ -17862,7 +17634,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.671422388159752</v>
+        <v>1.652479929405701</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.392712295650896</v>
@@ -17951,7 +17723,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.675470142915621</v>
+        <v>1.652983688288094</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.619970383470585</v>
@@ -18040,7 +17812,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.678880701722834</v>
+        <v>1.649873916375496</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.521797069195912</v>
@@ -18129,7 +17901,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.670769774413851</v>
+        <v>1.650093730572499</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.405178925143221</v>
@@ -18218,7 +17990,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.67415656517866</v>
+        <v>1.644447627326316</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.377464008620444</v>
@@ -18307,7 +18079,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.656702392531586</v>
+        <v>1.615094214387877</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.61124693131534</v>
@@ -18396,7 +18168,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.670542377039487</v>
+        <v>1.624184275449517</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.30957122109964</v>
@@ -18485,7 +18257,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65762521947408</v>
+        <v>1.611029871794659</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.17642965726109</v>
@@ -18574,7 +18346,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653707844022338</v>
+        <v>1.598497705905134</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.552737167061609</v>
@@ -18663,7 +18435,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.660344757014349</v>
+        <v>1.60436357172899</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.057794856368099</v>
@@ -18752,7 +18524,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.68707822871945</v>
+        <v>1.630758436274802</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.215875097743794</v>
@@ -18841,7 +18613,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.684872293508596</v>
+        <v>1.618685933327917</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.240580883454855</v>
@@ -18930,7 +18702,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.693286176687129</v>
+        <v>1.623514064640721</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.559114143920302</v>
@@ -19019,7 +18791,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.671362338667821</v>
+        <v>1.605689840378929</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.322651402832569</v>
@@ -19108,7 +18880,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.656907301721478</v>
+        <v>1.591263701992112</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.2219591439142</v>
@@ -19197,7 +18969,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647715929754253</v>
+        <v>1.584582826877653</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.326638380699455</v>
@@ -19286,7 +19058,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647410113208852</v>
+        <v>1.580503782099155</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.136766951728668</v>
@@ -19375,7 +19147,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636279781528858</v>
+        <v>1.576237833425724</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.098139269273889</v>
@@ -19464,7 +19236,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.640631015989447</v>
+        <v>1.575695775970367</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.235007244704186</v>
@@ -19553,7 +19325,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639960749397694</v>
+        <v>1.578630385857842</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.300136749833769</v>
@@ -19642,7 +19414,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.637545879784071</v>
+        <v>1.5789129546261</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.222269780832808</v>
@@ -19731,7 +19503,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624027186084779</v>
+        <v>1.574862049137767</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.354352275619914</v>
@@ -19820,7 +19592,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62215982907296</v>
+        <v>1.575268821836998</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.904685312201692</v>
@@ -19909,7 +19681,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.598485547647934</v>
+        <v>1.555596823195846</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.982310875032657</v>
@@ -19998,7 +19770,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.600261985264729</v>
+        <v>1.55694738960605</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.974157188167107</v>
@@ -20087,7 +19859,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.586146138229967</v>
+        <v>1.547188664898763</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.753601321362287</v>
@@ -20176,7 +19948,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.58494894873801</v>
+        <v>1.550331091743575</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.803834033627529</v>
@@ -20265,7 +20037,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.58558803703613</v>
+        <v>1.55188199822643</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.593256892910619</v>
@@ -20354,7 +20126,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594590553227622</v>
+        <v>1.553527518388911</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.717507310348581</v>
@@ -20443,7 +20215,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.601614009602281</v>
+        <v>1.562206456695342</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.676364390851899</v>
@@ -20532,7 +20304,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.613520074550367</v>
+        <v>1.576818678722309</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.935295019070194</v>
@@ -20621,7 +20393,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.611234523971626</v>
+        <v>1.578595453127066</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.947459396279726</v>
@@ -20710,7 +20482,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616666844536129</v>
+        <v>1.582905346142159</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.88163762436674</v>
@@ -20799,7 +20571,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.621079572752018</v>
+        <v>1.584146452497064</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.799666370768142</v>
@@ -20888,7 +20660,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.625953208449364</v>
+        <v>1.58744099022668</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.929878117281982</v>
@@ -20977,7 +20749,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.615776732577632</v>
+        <v>1.575661920927871</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.988307324082145</v>
@@ -21066,7 +20838,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.616043817240745</v>
+        <v>1.570696762305489</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.735304262011883</v>
@@ -21155,7 +20927,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626674057254033</v>
+        <v>1.576054468184315</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.767538285692388</v>
@@ -21244,7 +21016,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.651614675265521</v>
+        <v>1.598595528011653</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.605413515756979</v>
@@ -21333,7 +21105,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.64330534605024</v>
+        <v>1.590688674874264</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.222969003364111</v>
@@ -21422,7 +21194,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.644926222880454</v>
+        <v>1.588404845316887</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.473046179658664</v>
@@ -21511,7 +21283,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.656869322311853</v>
+        <v>1.597740881879937</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.589549292837512</v>
@@ -21600,7 +21372,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.651267268668886</v>
+        <v>1.595721964034778</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.470425003657136</v>
@@ -21689,7 +21461,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.666331622982047</v>
+        <v>1.6122203792543</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.683558040350957</v>
@@ -21778,7 +21550,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.66613229024555</v>
+        <v>1.61833400638037</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.172625385077534</v>
@@ -21867,7 +21639,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.664259373779936</v>
+        <v>1.611739891336027</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.469906661231308</v>
@@ -21956,7 +21728,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.667145879900511</v>
+        <v>1.611776278386832</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.527100555120801</v>
@@ -22045,7 +21817,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.67209940649823</v>
+        <v>1.617991538706747</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.443325609506134</v>
@@ -22134,7 +21906,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.666611116450908</v>
+        <v>1.615387057630413</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.958041263320956</v>
@@ -22223,7 +21995,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.663233653100709</v>
+        <v>1.609373630992651</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.097336803826079</v>
@@ -22312,7 +22084,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.662697572479841</v>
+        <v>1.610871980852423</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.559993699234548</v>
@@ -22401,7 +22173,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.656719850981327</v>
+        <v>1.607845725642495</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.126599135279768</v>
@@ -22490,7 +22262,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.657650751915541</v>
+        <v>1.609972131713844</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.14393861417227</v>
@@ -22579,7 +22351,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.661396491881344</v>
+        <v>1.616283561625884</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.00330184612334</v>
@@ -22668,7 +22440,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.647693736591559</v>
+        <v>1.602163774990182</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.211100167068267</v>
@@ -22757,7 +22529,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.626474439449961</v>
+        <v>1.584990862046203</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.126525878830179</v>
@@ -22846,7 +22618,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.619610515808505</v>
+        <v>1.580448558853715</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.241139266122506</v>
@@ -22935,7 +22707,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.614938740796045</v>
+        <v>1.575261623420784</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.134611285353936</v>
@@ -23024,7 +22796,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.611641854842479</v>
+        <v>1.567150704442033</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.005336488029222</v>
@@ -23113,7 +22885,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.597431275702828</v>
+        <v>1.551545813671992</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.10566870963774</v>
@@ -23202,7 +22974,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.593397687818747</v>
+        <v>1.550579636189275</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.970971363427984</v>
@@ -23291,7 +23063,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.594255995829696</v>
+        <v>1.555376038218355</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.252053551465857</v>
@@ -23380,7 +23152,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.589431008898457</v>
+        <v>1.548782723241614</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.12550808436059</v>
@@ -23469,7 +23241,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.589820239977129</v>
+        <v>1.550787440547458</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.925625420849328</v>
@@ -23558,7 +23330,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.587553818170878</v>
+        <v>1.546253948625856</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.168569904394116</v>
@@ -23647,7 +23419,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.589702278013056</v>
+        <v>1.542972461550818</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.198026775408758</v>
@@ -23736,7 +23508,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.593334343393088</v>
+        <v>1.543377596400057</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.984876525176436</v>
@@ -23825,7 +23597,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.58993414258376</v>
+        <v>1.543923103072004</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.094240223427215</v>
@@ -23914,7 +23686,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.572165529787989</v>
+        <v>1.532430777716112</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.816370191434758</v>
@@ -24003,7 +23775,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.551804304680676</v>
+        <v>1.51348164067152</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.712607930354023</v>
@@ -24092,7 +23864,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.548058138851251</v>
+        <v>1.511520445876335</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.967773532931539</v>
@@ -24181,7 +23953,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.55137440613331</v>
+        <v>1.512195023242764</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.962010310516372</v>
@@ -24270,7 +24042,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.547445238514274</v>
+        <v>1.511722900550175</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.965678794022799</v>
@@ -24359,7 +24131,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.542058735184378</v>
+        <v>1.510547713677113</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.743928991435018</v>
@@ -24448,7 +24220,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.551618867068548</v>
+        <v>1.520369568755162</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.628853703598217</v>
@@ -24734,7 +24506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.67739477263423</v>
+        <v>1.630198627100413</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.549860714253729</v>
@@ -24823,7 +24595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.65340670083962</v>
+        <v>1.597841574058539</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.350172442119903</v>
@@ -24912,7 +24684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.637394473800405</v>
+        <v>1.57944803662544</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.407863120850585</v>
@@ -25001,7 +24773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.637557003939368</v>
+        <v>1.585068079193467</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.412158147114758</v>
@@ -25090,7 +24862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.640222601678675</v>
+        <v>1.586885328551912</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.503304616483399</v>
@@ -25179,7 +24951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.633978685294966</v>
+        <v>1.577751058685275</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.575944354815137</v>
@@ -25268,7 +25040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.617880365252959</v>
+        <v>1.559867637363483</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.361065072206279</v>
@@ -25357,7 +25129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.624557496700651</v>
+        <v>1.571545701328835</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.314964693218561</v>
@@ -25446,7 +25218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.624362265245496</v>
+        <v>1.567961483047104</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.354767433341919</v>
@@ -25535,7 +25307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.611835348613885</v>
+        <v>1.558703901350518</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.306504296595583</v>
@@ -25624,7 +25396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.608365441491392</v>
+        <v>1.547559296590065</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.32250049293125</v>
@@ -25713,7 +25485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.554576940082588</v>
+        <v>1.475422954837807</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.680478538125995</v>
@@ -25802,7 +25574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.556243467274717</v>
+        <v>1.479236614465187</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.940518640357799</v>
@@ -25891,7 +25663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562472569605751</v>
+        <v>1.478126456221019</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.877590997767369</v>
@@ -25980,7 +25752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572871327321019</v>
+        <v>1.486714738038254</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.146843147341845</v>
@@ -26069,7 +25841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57014415523334</v>
+        <v>1.478719765277377</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.022473477582939</v>
@@ -26158,7 +25930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.572844161482234</v>
+        <v>1.475445369803741</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.91658398336983</v>
@@ -26247,7 +26019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.584398287844154</v>
+        <v>1.485551194132634</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.014072618397512</v>
@@ -26336,7 +26108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.594024404010587</v>
+        <v>1.489903354457192</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.834492831563543</v>
@@ -26425,7 +26197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.584827316305033</v>
+        <v>1.483607144783483</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.889596695417313</v>
@@ -26514,7 +26286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580086353804148</v>
+        <v>1.475891456708967</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.960852841543741</v>
@@ -26603,7 +26375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600049908883595</v>
+        <v>1.487482031805733</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.603033096649146</v>
@@ -26692,7 +26464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.600643278333656</v>
+        <v>1.492582359132188</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.259448366430437</v>
@@ -26781,7 +26553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.60522566314404</v>
+        <v>1.504482322787611</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.871362533629237</v>
@@ -26870,7 +26642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.616464823332241</v>
+        <v>1.522005606025261</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.590221170000318</v>
@@ -26959,7 +26731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.589516100511761</v>
+        <v>1.510522983886811</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.801615379760887</v>
@@ -27048,7 +26820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.597266443703461</v>
+        <v>1.519957002559216</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.822612980887779</v>
@@ -27137,7 +26909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601009263771495</v>
+        <v>1.528067239778467</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.770433366671115</v>
@@ -27226,7 +26998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.608451404613205</v>
+        <v>1.532105066815556</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.718631055786089</v>
@@ -27315,7 +27087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.60911789087629</v>
+        <v>1.52632832973163</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.686258034466474</v>
@@ -27404,7 +27176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611915562955167</v>
+        <v>1.526825429397642</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.837342864078503</v>
@@ -27493,7 +27265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.605017700892864</v>
+        <v>1.524187939839085</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.852039238098387</v>
@@ -27582,7 +27354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.616354860049411</v>
+        <v>1.52920711912681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.85902220128082</v>
@@ -27671,7 +27443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608483671693998</v>
+        <v>1.52797203164347</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.868509824625287</v>
@@ -27760,7 +27532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.629577530058139</v>
+        <v>1.539806812127952</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.58272105697111</v>
@@ -27849,7 +27621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.62483398396038</v>
+        <v>1.540072578642473</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.825039098070912</v>
@@ -27938,7 +27710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.620260585479368</v>
+        <v>1.546388318692234</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.83503839345014</v>
@@ -28027,7 +27799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622595044219823</v>
+        <v>1.55311748159129</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.6343307398012</v>
@@ -28116,7 +27888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.626103135036068</v>
+        <v>1.543986835765336</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.739234757989601</v>
@@ -28205,7 +27977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.622684567085473</v>
+        <v>1.532375148201349</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.829197681681478</v>
@@ -28294,7 +28066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.642242313334002</v>
+        <v>1.546094822939573</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.921014838446528</v>
@@ -28383,7 +28155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640494118144315</v>
+        <v>1.54029390148726</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.402511954089106</v>
@@ -28472,7 +28244,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.648132116793877</v>
+        <v>1.541657960222329</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.336708928208945</v>
@@ -28561,7 +28333,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.646982330735971</v>
+        <v>1.546953509402645</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.303728717504666</v>
@@ -28650,7 +28422,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.647173974008339</v>
+        <v>1.546789179370759</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.293000756983539</v>
@@ -28739,7 +28511,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.644224394700786</v>
+        <v>1.539116802387146</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.459410191835002</v>
@@ -28828,7 +28600,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.653364709188668</v>
+        <v>1.550929827545324</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.258675589206835</v>
@@ -28917,7 +28689,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64770432665892</v>
+        <v>1.552535142368385</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.225854930667528</v>
@@ -29006,7 +28778,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.651814576929969</v>
+        <v>1.555130978801481</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.966038444678397</v>
@@ -29095,7 +28867,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.653273739188049</v>
+        <v>1.565481849503422</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.904896061752571</v>
@@ -29184,7 +28956,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.660364953750363</v>
+        <v>1.572515573594503</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.155590105922134</v>
@@ -29273,7 +29045,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.672130135617429</v>
+        <v>1.579672778582243</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.270493202056389</v>
@@ -29362,7 +29134,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.668216335395808</v>
+        <v>1.563574341513646</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.307368630403365</v>
@@ -29451,7 +29223,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.668979771355272</v>
+        <v>1.571907925150466</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.293307286441031</v>
@@ -29540,7 +29312,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.675202511007661</v>
+        <v>1.583664873987031</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.998927473812191</v>
@@ -29629,7 +29401,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.677473924197958</v>
+        <v>1.578650988571211</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.125542988034605</v>
@@ -29718,7 +29490,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.678934261345381</v>
+        <v>1.573303432238505</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.052824523050764</v>
@@ -29807,7 +29579,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.663046307679408</v>
+        <v>1.553028676057944</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.179534689823611</v>
@@ -29896,7 +29668,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.653593407162821</v>
+        <v>1.543775815148904</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.410119394938959</v>
@@ -29985,7 +29757,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.649732448131522</v>
+        <v>1.540672080037172</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.329054867627054</v>
@@ -30074,7 +29846,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.644635644842095</v>
+        <v>1.539605238902885</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.815552218833175</v>
@@ -30163,7 +29935,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.631361777947433</v>
+        <v>1.530443669436206</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.465325267972222</v>
@@ -30252,7 +30024,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.63002297132067</v>
+        <v>1.532350931666644</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.44429065344707</v>
@@ -30341,7 +30113,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.612546496320426</v>
+        <v>1.521290134907339</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.219169088155484</v>
@@ -30430,7 +30202,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.610092250496451</v>
+        <v>1.520329262808509</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.487171678180784</v>
@@ -30519,7 +30291,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.597840498816782</v>
+        <v>1.507713552010906</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.395229511963142</v>
@@ -30608,7 +30380,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.591680509235755</v>
+        <v>1.501331282230608</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.170701293034396</v>
@@ -30697,7 +30469,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.591199044622674</v>
+        <v>1.508290207242844</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.396719776300202</v>
@@ -30786,7 +30558,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.587386502120741</v>
+        <v>1.505911594074344</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.352312944242433</v>
@@ -30875,7 +30647,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.589411813941376</v>
+        <v>1.505786131293518</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.127243614531914</v>
@@ -30964,7 +30736,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.592304036502478</v>
+        <v>1.507599367269898</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.017717354962008</v>
@@ -31053,7 +30825,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.594661103011612</v>
+        <v>1.520430092938898</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.22098577411683</v>
@@ -31142,7 +30914,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.600276742944635</v>
+        <v>1.532804290995533</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.447871670902384</v>
@@ -31231,7 +31003,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.603467418390707</v>
+        <v>1.539713929725273</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.406791440876161</v>
@@ -31320,7 +31092,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.601095031503918</v>
+        <v>1.540765270116281</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.113833757239993</v>
@@ -31409,7 +31181,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.612088435643145</v>
+        <v>1.554048830685494</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.852041719593657</v>
@@ -31498,7 +31270,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.609003806424599</v>
+        <v>1.55079999002448</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.000959846732546</v>
@@ -31587,7 +31359,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.568036610584421</v>
+        <v>1.515390652057193</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.367486359957233</v>
@@ -31676,7 +31448,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.583059044781003</v>
+        <v>1.528448754208574</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.369231489024712</v>
@@ -31765,7 +31537,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.586689580427536</v>
+        <v>1.529762166085898</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.445908396131354</v>
@@ -31854,7 +31626,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.577757456597139</v>
+        <v>1.522945355768493</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.458692395407363</v>
@@ -32140,7 +31912,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.453455477582159</v>
+        <v>1.434467385438889</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.270851997716572</v>
@@ -32229,7 +32001,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.439264657920859</v>
+        <v>1.417888297009535</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.251270149620466</v>
@@ -32318,7 +32090,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.425289644011954</v>
+        <v>1.40200971966103</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.262551191420892</v>
@@ -32407,7 +32179,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.42783791107312</v>
+        <v>1.399342130163132</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.226257213406992</v>
@@ -32496,7 +32268,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.425689681263542</v>
+        <v>1.398364485427152</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.225710045609596</v>
@@ -32585,7 +32357,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.433208050763426</v>
+        <v>1.406182110916922</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.099279275625678</v>
@@ -32674,7 +32446,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.449019485631834</v>
+        <v>1.416033106223323</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.17235417759899</v>
@@ -32763,7 +32535,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.449084423406516</v>
+        <v>1.417566822029105</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.155259203209958</v>
@@ -32852,7 +32624,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.468161922172579</v>
+        <v>1.432616138388561</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.083865285328706</v>
@@ -32941,7 +32713,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.470189846342838</v>
+        <v>1.432566613402341</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.219243466209509</v>
@@ -33030,7 +32802,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.463321399042381</v>
+        <v>1.422900068900917</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.161995775729349</v>
@@ -33119,7 +32891,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450669147000045</v>
+        <v>1.400720864281137</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.040050768157355</v>
@@ -33208,7 +32980,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.44755192916812</v>
+        <v>1.400227692936121</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.110296301756784</v>
@@ -33297,7 +33069,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.420042771668907</v>
+        <v>1.374796963352381</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.043853394035909</v>
@@ -33386,7 +33158,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.473007620622164</v>
+        <v>1.418281792640637</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.039223628079549</v>
@@ -33475,7 +33247,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.457089768736103</v>
+        <v>1.406702727304484</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.28602715727885</v>
@@ -33564,7 +33336,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.441540484339995</v>
+        <v>1.389504943652336</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.321612545587269</v>
@@ -33653,7 +33425,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450272537421238</v>
+        <v>1.392919876403277</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.3341829690978</v>
@@ -33742,7 +33514,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457564760089923</v>
+        <v>1.401597658120968</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.359510049492053</v>
@@ -33831,7 +33603,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.469944322763391</v>
+        <v>1.409102016085983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.281639095835429</v>
@@ -33920,7 +33692,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.465150980157488</v>
+        <v>1.396193782465849</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.509754595848487</v>
@@ -34009,7 +33781,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.474990228338176</v>
+        <v>1.40359279734289</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.276172412110882</v>
@@ -34098,7 +33870,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.47565450537793</v>
+        <v>1.40361117288621</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.380612566753344</v>
@@ -34187,7 +33959,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.473920445536198</v>
+        <v>1.404670244064733</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.507113150663981</v>
@@ -34276,7 +34048,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.461387905867189</v>
+        <v>1.397380757279618</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.296956088968106</v>
@@ -34365,7 +34137,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.468013261927265</v>
+        <v>1.404517668500984</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.415281919267701</v>
@@ -34454,7 +34226,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.468007962004013</v>
+        <v>1.403537420669931</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.266522892109913</v>
@@ -34543,7 +34315,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.471227947360849</v>
+        <v>1.409051574608999</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.353686889408995</v>
@@ -34632,7 +34404,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.510613003872535</v>
+        <v>1.434548863092342</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.691587305915206</v>
@@ -34721,7 +34493,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.502249387475387</v>
+        <v>1.429536397379272</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.651365210090373</v>
@@ -34810,7 +34582,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528056434739788</v>
+        <v>1.452493730782574</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.928899917850693</v>
@@ -34899,7 +34671,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.550539696964922</v>
+        <v>1.468337918752638</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.982573081000227</v>
@@ -34988,7 +34760,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.562633055142564</v>
+        <v>1.479532294822214</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.882308814483735</v>
@@ -35077,7 +34849,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.558976743343799</v>
+        <v>1.479717479334817</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.679872364761111</v>
@@ -35166,7 +34938,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561284438800621</v>
+        <v>1.483096848714838</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.691707704126651</v>
@@ -35255,7 +35027,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553671094742172</v>
+        <v>1.481780183811267</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.900393721720902</v>
@@ -35344,7 +35116,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55307181153018</v>
+        <v>1.48428548989912</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.973157963926917</v>
@@ -35433,7 +35205,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.542896909394731</v>
+        <v>1.477679568818056</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.376224248910447</v>
@@ -35522,7 +35294,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.511065452136485</v>
+        <v>1.4530374103519</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.529149449810586</v>
@@ -35611,7 +35383,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.519636568484112</v>
+        <v>1.460920330197979</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.718721516049468</v>
@@ -35700,7 +35472,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.523581355155381</v>
+        <v>1.463981436438727</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.732076979455393</v>
@@ -35789,7 +35561,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.514764380500499</v>
+        <v>1.450545926823401</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.70024342235713</v>
@@ -35878,7 +35650,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.515090323030854</v>
+        <v>1.446519605970914</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.686302000713335</v>
@@ -35967,7 +35739,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.508304570853597</v>
+        <v>1.445661136912933</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.719536368419548</v>
@@ -36056,7 +35828,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.479696210497676</v>
+        <v>1.426091858454136</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.581881383478389</v>
@@ -36145,7 +35917,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.486147614921291</v>
+        <v>1.431020922524879</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.340525407231666</v>
@@ -36234,7 +36006,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475617382718435</v>
+        <v>1.423590425818622</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.596171913182991</v>
@@ -36323,7 +36095,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.454761276126627</v>
+        <v>1.405633823808193</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.465124835794873</v>
@@ -36412,7 +36184,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.463760913748572</v>
+        <v>1.410117301736512</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.537457811694448</v>
@@ -36501,7 +36273,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.461452188363884</v>
+        <v>1.407784786669209</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.395454110565398</v>
@@ -36590,7 +36362,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.478586380341016</v>
+        <v>1.420502795333813</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.597757800158945</v>
@@ -36679,7 +36451,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.447722235714372</v>
+        <v>1.394805637707041</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.463092702412016</v>
@@ -36768,7 +36540,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.460555068563092</v>
+        <v>1.403108156288956</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.528771731121031</v>
@@ -36857,7 +36629,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.480734744523638</v>
+        <v>1.417491283981097</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.494320275524841</v>
@@ -36946,7 +36718,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.482515274390158</v>
+        <v>1.418367526113597</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.494846767338457</v>
@@ -37035,7 +36807,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.440121253284609</v>
+        <v>1.385268937378515</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.159270284682883</v>
@@ -37124,7 +36896,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.447334022796924</v>
+        <v>1.396785426054471</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.141490349276872</v>
@@ -37213,7 +36985,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.439345995345765</v>
+        <v>1.391062291247713</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.208076421864138</v>
@@ -37302,7 +37074,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.43325396834187</v>
+        <v>1.382560683199712</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.176212780638611</v>
@@ -37391,7 +37163,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.454830748552173</v>
+        <v>1.402943880904935</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.167197549043229</v>
@@ -37480,7 +37252,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.450813885250835</v>
+        <v>1.395778052397139</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.190023892934165</v>
@@ -37569,7 +37341,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.459574192578705</v>
+        <v>1.404924023731841</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.11900863688745</v>
@@ -37658,7 +37430,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.473936511716943</v>
+        <v>1.414739845324298</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.153938064198234</v>
@@ -37747,7 +37519,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.462607625767299</v>
+        <v>1.406037789981841</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.201604034929806</v>
@@ -37836,7 +37608,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.452953012267459</v>
+        <v>1.402977404140462</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.1914586540569</v>
@@ -37925,7 +37697,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.441214032028935</v>
+        <v>1.394839019006015</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.067035222832327</v>
@@ -38014,7 +37786,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.450059295926476</v>
+        <v>1.4059426389135</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.112877781949774</v>
@@ -38103,7 +37875,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.453963063538447</v>
+        <v>1.407525972904598</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.047914403367707</v>
@@ -38192,7 +37964,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.450244100602678</v>
+        <v>1.405830607130985</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.120630450215464</v>
@@ -38281,7 +38053,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.452601027246544</v>
+        <v>1.40709282078136</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.139965055879915</v>
@@ -38370,7 +38142,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.468939679184742</v>
+        <v>1.425366776961245</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.33766973263223</v>
@@ -38459,7 +38231,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.47802331021208</v>
+        <v>1.433985201056711</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.386084353252838</v>
@@ -38548,7 +38320,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.49452175633924</v>
+        <v>1.453603738043225</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.301948515371507</v>
@@ -38637,7 +38409,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.510418198363408</v>
+        <v>1.46647564829107</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.240460822490296</v>
@@ -38726,7 +38498,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.512228654445325</v>
+        <v>1.467050295257664</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.34975774097963</v>
@@ -38815,7 +38587,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.500758566224408</v>
+        <v>1.464261354906236</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.321585746403271</v>
@@ -38904,7 +38676,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.495125969168232</v>
+        <v>1.462015182487847</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.324145368483071</v>
@@ -38993,7 +38765,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.495323119479779</v>
+        <v>1.464300007522293</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.363749822463794</v>
@@ -39082,7 +38854,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.499930788738966</v>
+        <v>1.473161107394305</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.287025783261386</v>
@@ -39171,7 +38943,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.508112020236875</v>
+        <v>1.474192138630083</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.423791193324385</v>
@@ -39260,7 +39032,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.487338557264286</v>
+        <v>1.461024894788127</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.325287314704746</v>
@@ -39546,7 +39318,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.307933094620314</v>
+        <v>1.314913948490561</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.886308825612753</v>
@@ -39635,7 +39407,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.290889411396544</v>
+        <v>1.295729339207028</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.877022026260123</v>
@@ -39724,7 +39496,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.284126017230879</v>
+        <v>1.283325129813695</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.851678826106915</v>
@@ -39813,7 +39585,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.276976275903476</v>
+        <v>1.280238035232382</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.836893702850331</v>
@@ -39902,7 +39674,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.271479329629204</v>
+        <v>1.275545182668256</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.801462341123596</v>
@@ -39991,7 +39763,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.279417871298039</v>
+        <v>1.283326487328336</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.730218635855614</v>
@@ -40080,7 +39852,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.276790622116227</v>
+        <v>1.280467739614583</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.845971780699148</v>
@@ -40169,7 +39941,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.278017443252491</v>
+        <v>1.28172261399455</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.803427923824047</v>
@@ -40258,7 +40030,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.27198863213054</v>
+        <v>1.273043643803793</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.793346114707639</v>
@@ -40347,7 +40119,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.261446147086995</v>
+        <v>1.264806827039536</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.812449591496498</v>
@@ -40436,7 +40208,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.271838530013918</v>
+        <v>1.278009187604227</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.772003270708258</v>
@@ -40525,7 +40297,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.305758425939085</v>
+        <v>1.305881737148966</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.187212615022923</v>
@@ -40614,7 +40386,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.288228089298411</v>
+        <v>1.291874308723405</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.421592507001409</v>
@@ -40703,7 +40475,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.290447749295849</v>
+        <v>1.292623716698178</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.187292710776461</v>
@@ -40792,7 +40564,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.310668944565478</v>
+        <v>1.307904749281131</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.358357994233986</v>
@@ -40881,7 +40653,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.289141414001714</v>
+        <v>1.28794195819141</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.358426282053079</v>
@@ -40970,7 +40742,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.309418231549877</v>
+        <v>1.306215077775019</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.340392964351721</v>
@@ -41059,7 +40831,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.297349309318634</v>
+        <v>1.295089858958473</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.121106851565559</v>
@@ -41148,7 +40920,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.313230619089373</v>
+        <v>1.309016472614344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.33838202586958</v>
@@ -41237,7 +41009,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.293756467958728</v>
+        <v>1.288859673244052</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.263565104709611</v>
@@ -41326,7 +41098,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.284979503415979</v>
+        <v>1.280533658202937</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.280090600692126</v>
@@ -41415,7 +41187,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.305260367087385</v>
+        <v>1.297208080378769</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.159333039248932</v>
@@ -41504,7 +41276,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.310514826108012</v>
+        <v>1.297375634839936</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.297994259079648</v>
@@ -41593,7 +41365,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.313144536556903</v>
+        <v>1.299457465691424</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.98800625443742</v>
@@ -41682,7 +41454,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.315710044390517</v>
+        <v>1.303207457041602</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.209783713665779</v>
@@ -41771,7 +41543,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.323951303477015</v>
+        <v>1.308641161832311</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.218615946991491</v>
@@ -41860,7 +41632,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.310395220161736</v>
+        <v>1.292916908234808</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.234754165431497</v>
@@ -41949,7 +41721,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.317633832299733</v>
+        <v>1.303203054866635</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.186215730634204</v>
@@ -42038,7 +41810,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.317006803590394</v>
+        <v>1.304152475442151</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.30955886138563</v>
@@ -42127,7 +41899,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.322297793782805</v>
+        <v>1.307717910692979</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.191895510243143</v>
@@ -42216,7 +41988,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.340621587308352</v>
+        <v>1.327552600613103</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.211227872373952</v>
@@ -42305,7 +42077,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.330631634576672</v>
+        <v>1.320355676761408</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.219626081557315</v>
@@ -42394,7 +42166,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.352834944363927</v>
+        <v>1.345603778415326</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.255573149267667</v>
@@ -42483,7 +42255,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.351612786750219</v>
+        <v>1.348814161509982</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.257578442485964</v>
@@ -42572,7 +42344,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.397330163710073</v>
+        <v>1.383607842230304</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.228305810890991</v>
@@ -42661,7 +42433,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.384427829262754</v>
+        <v>1.373328353535499</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.361843988156111</v>
@@ -42750,7 +42522,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.387232940011927</v>
+        <v>1.378249446236579</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.369172445616315</v>
@@ -42839,7 +42611,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.413642928431877</v>
+        <v>1.405034138120955</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.046638036565755</v>
@@ -42928,7 +42700,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.405289613950414</v>
+        <v>1.399422166667624</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.373476898477037</v>
@@ -43017,7 +42789,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.415935968677676</v>
+        <v>1.406898481213937</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.394819639694456</v>
@@ -43106,7 +42878,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.410562417388773</v>
+        <v>1.397695249124399</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.168031232696114</v>
@@ -43195,7 +42967,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.419990711308878</v>
+        <v>1.414603494975848</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.207868333333503</v>
@@ -43284,7 +43056,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.413673460990052</v>
+        <v>1.405351609199708</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.434617676218013</v>
@@ -43373,7 +43145,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.404241984603814</v>
+        <v>1.395662004964121</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.198490711459557</v>
@@ -43462,7 +43234,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.394786227235885</v>
+        <v>1.384909931855667</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.393255812376089</v>
@@ -43551,7 +43323,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.386574875667643</v>
+        <v>1.372775757612887</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.259456689318568</v>
@@ -43640,7 +43412,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.404367255401765</v>
+        <v>1.386629103877923</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.287265217068915</v>
@@ -43729,7 +43501,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.388752764792051</v>
+        <v>1.37326467126699</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.356904623574737</v>
@@ -43818,7 +43590,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.386114675814973</v>
+        <v>1.369164140545432</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.319882010466982</v>
@@ -43907,7 +43679,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.388197485495163</v>
+        <v>1.375854533086</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.4391065387259</v>
@@ -43996,7 +43768,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.396961307502451</v>
+        <v>1.383669540823761</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.501046336347946</v>
@@ -44085,7 +43857,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.39386591753462</v>
+        <v>1.385157431553752</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.51013743066648</v>
@@ -44174,7 +43946,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.383498935347472</v>
+        <v>1.368052100055668</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.400010069819233</v>
@@ -44263,7 +44035,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.384062599413399</v>
+        <v>1.377801176032407</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.545882510469905</v>
@@ -44352,7 +44124,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.383737892035818</v>
+        <v>1.377893355155919</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.455412320272574</v>
@@ -44441,7 +44213,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.389321101369164</v>
+        <v>1.382557812095902</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.229396561882237</v>
@@ -44530,7 +44302,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.393413765794216</v>
+        <v>1.383333745736851</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.348726333138685</v>
@@ -44619,7 +44391,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.373634620476191</v>
+        <v>1.360979686277645</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.507394952892075</v>
@@ -44708,7 +44480,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.37861686167007</v>
+        <v>1.36494950727436</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.491314987374509</v>
@@ -44797,7 +44569,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.383922273799078</v>
+        <v>1.37013490694234</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.326251078082058</v>
@@ -44886,7 +44658,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.3803365998056</v>
+        <v>1.371020062684245</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.497507495245365</v>
@@ -44975,7 +44747,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.375202844061738</v>
+        <v>1.36313259196523</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.318191958791772</v>
@@ -45064,7 +44836,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.360476983238422</v>
+        <v>1.346836201944689</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.284189825578512</v>
@@ -45153,7 +44925,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.339141350126905</v>
+        <v>1.328833678792671</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.264314488007129</v>
@@ -45242,7 +45014,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.346372622535753</v>
+        <v>1.330435856134453</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.249670143140185</v>
@@ -45331,7 +45103,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.317035213491966</v>
+        <v>1.307377017711108</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.201433625018076</v>
@@ -45420,7 +45192,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.312585551723493</v>
+        <v>1.301038278046884</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.36230337277496</v>
@@ -45509,7 +45281,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.319773515934452</v>
+        <v>1.305568537967776</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.07601682956076</v>
@@ -45598,7 +45370,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.312492091113982</v>
+        <v>1.297739468983637</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.228431929279062</v>
@@ -45687,7 +45459,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.306031382238944</v>
+        <v>1.291135149331047</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.290573311706518</v>
@@ -45776,7 +45548,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.306789486991295</v>
+        <v>1.29249154651306</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.255560099491269</v>
@@ -45865,7 +45637,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.304491563596818</v>
+        <v>1.290443708194582</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.211795462064136</v>
@@ -45954,7 +45726,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.324636507727985</v>
+        <v>1.306853031087003</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.237290482330309</v>
@@ -46043,7 +45815,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.324598757121341</v>
+        <v>1.307703770129343</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.180609205228897</v>
@@ -46132,7 +45904,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.323034262094835</v>
+        <v>1.307928604828797</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.306435727608802</v>
@@ -46221,7 +45993,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.320389925159136</v>
+        <v>1.304195842873051</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.309182764630348</v>
@@ -46310,7 +46082,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.336360753477998</v>
+        <v>1.318859312148333</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.066168037226566</v>
@@ -46399,7 +46171,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.355723637944528</v>
+        <v>1.336412974758789</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.982652519604344</v>
@@ -46488,7 +46260,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.357063284350345</v>
+        <v>1.337178434869581</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.301209033319788</v>
@@ -46577,7 +46349,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.366325488967095</v>
+        <v>1.345077251480011</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.939463260267841</v>
@@ -46666,7 +46438,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.372586376206227</v>
+        <v>1.349887461558289</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.204334341816315</v>
@@ -46952,7 +46724,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.490494768760657</v>
+        <v>1.464900454676387</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.472725026129144</v>
@@ -47041,7 +46813,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.490168570420054</v>
+        <v>1.462159801685217</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.386735164926244</v>
@@ -47130,7 +46902,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.476707909936178</v>
+        <v>1.448497193670905</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.325596870772074</v>
@@ -47219,7 +46991,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.490577761437469</v>
+        <v>1.460072006294288</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.372183018550895</v>
@@ -47308,7 +47080,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.496759897184996</v>
+        <v>1.468168053568528</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.488001153618046</v>
@@ -47397,7 +47169,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.512011380119101</v>
+        <v>1.486234760324043</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.239629934464292</v>
@@ -47486,7 +47258,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.517280203364168</v>
+        <v>1.486015045689622</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.321665807970494</v>
@@ -47575,7 +47347,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.522749446661029</v>
+        <v>1.493909046278704</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.368354478408114</v>
@@ -47664,7 +47436,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.546659564707313</v>
+        <v>1.512831539246796</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.396212908264414</v>
@@ -47753,7 +47525,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.533486015829468</v>
+        <v>1.499316091956775</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.533498913273419</v>
@@ -47842,7 +47614,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.543823224479814</v>
+        <v>1.505860770823865</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.244527706007033</v>
@@ -47931,7 +47703,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.55165901060905</v>
+        <v>1.492669541209898</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.614893283495965</v>
@@ -48020,7 +47792,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542681648188863</v>
+        <v>1.49295244326301</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.640287005522134</v>
@@ -48109,7 +47881,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.52114863848441</v>
+        <v>1.471675807781226</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.679719308509926</v>
@@ -48198,7 +47970,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.503993264018101</v>
+        <v>1.459599874866606</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.636921902908261</v>
@@ -48287,7 +48059,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.49002651586885</v>
+        <v>1.443301614911159</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.565669325105901</v>
@@ -48376,7 +48148,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.492105672943235</v>
+        <v>1.439615524577724</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.696040797182786</v>
@@ -48465,7 +48237,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.480720078382526</v>
+        <v>1.42661361237086</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.539009655184978</v>
@@ -48554,7 +48326,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.476840433183855</v>
+        <v>1.425834369332853</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.465890210182489</v>
@@ -48643,7 +48415,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.483121443039896</v>
+        <v>1.431725878074032</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.645789345803472</v>
@@ -48732,7 +48504,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.483820515505468</v>
+        <v>1.427984957932103</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.524700138638631</v>
@@ -48821,7 +48593,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.485290705700197</v>
+        <v>1.426873518162424</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.644377649405937</v>
@@ -48910,7 +48682,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.486834348478367</v>
+        <v>1.424206504850264</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.623308592614193</v>
@@ -48999,7 +48771,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.484083140071431</v>
+        <v>1.427415104399689</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.611790663356448</v>
@@ -49088,7 +48860,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.505032966261651</v>
+        <v>1.445308193385294</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.373666183477451</v>
@@ -49177,7 +48949,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.501728498625321</v>
+        <v>1.447167163067493</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.572909988213964</v>
@@ -49266,7 +49038,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.516788701965487</v>
+        <v>1.454604255958111</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.353262613674824</v>
@@ -49355,7 +49127,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.499476277075492</v>
+        <v>1.441081016243691</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.717541766131548</v>
@@ -49444,7 +49216,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.523481254650473</v>
+        <v>1.461413499216337</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.53409970969893</v>
@@ -49533,7 +49305,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.53574413583538</v>
+        <v>1.472770810266668</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.666937072289138</v>
@@ -49622,7 +49394,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.562899972573796</v>
+        <v>1.497434537055123</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.693315758913228</v>
@@ -49711,7 +49483,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.56198754125871</v>
+        <v>1.498180987943656</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.686948335263708</v>
@@ -49800,7 +49572,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.559425724450378</v>
+        <v>1.499459190365739</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.448912819524848</v>
@@ -49889,7 +49661,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550702425464589</v>
+        <v>1.498184256680396</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.633488145924628</v>
@@ -49978,7 +49750,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.550855969010588</v>
+        <v>1.492973492090497</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.516551784111817</v>
@@ -50067,7 +49839,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.552504991905451</v>
+        <v>1.501997091356611</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.564219819588841</v>
@@ -50156,7 +49928,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.558524062296643</v>
+        <v>1.508199291988952</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.547507637860407</v>
@@ -50245,7 +50017,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.577101204173092</v>
+        <v>1.527626760686844</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.571169069134215</v>
@@ -50334,7 +50106,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589561052687071</v>
+        <v>1.531969777872679</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.614930270227788</v>
@@ -50423,7 +50195,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605595697389256</v>
+        <v>1.549402041024833</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.542872619875295</v>
@@ -50512,7 +50284,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.624902737075858</v>
+        <v>1.570986752390558</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.641915932080146</v>
@@ -50601,7 +50373,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628742617998503</v>
+        <v>1.578307527856538</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.840668934366834</v>
@@ -50690,7 +50462,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.659056851280772</v>
+        <v>1.601399456921489</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.766196026316299</v>
@@ -50779,7 +50551,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.665135051758373</v>
+        <v>1.610324504924096</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.622826537560768</v>
@@ -50868,7 +50640,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679812643099486</v>
+        <v>1.628320858662205</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.773197188081451</v>
@@ -50957,7 +50729,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.679368691456189</v>
+        <v>1.627959832213856</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.780037225337546</v>
@@ -51046,7 +50818,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.701531818008023</v>
+        <v>1.642002070597796</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.924501280236535</v>
@@ -51135,7 +50907,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.742109609086897</v>
+        <v>1.674656229528128</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.934232654008105</v>
@@ -51224,7 +50996,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.75069332743677</v>
+        <v>1.679445286705792</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.238441172683637</v>
@@ -51313,7 +51085,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.757220350427344</v>
+        <v>1.684747472058175</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.186389997616689</v>
@@ -51402,7 +51174,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.761984173183982</v>
+        <v>1.688814202276019</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.267757829700794</v>
@@ -51491,7 +51263,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.739248778832263</v>
+        <v>1.677106412972635</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.691725935781866</v>
@@ -51580,7 +51352,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.734027825841235</v>
+        <v>1.675214851147398</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.882789555339627</v>
@@ -51669,7 +51441,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.734083767075059</v>
+        <v>1.68233508010064</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.72645980007161</v>
@@ -51758,7 +51530,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.723611595793985</v>
+        <v>1.675669234306201</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.830002711333186</v>
@@ -51847,7 +51619,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.711526002024066</v>
+        <v>1.666672622881539</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.874846891709724</v>
@@ -51936,7 +51708,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.718421162905649</v>
+        <v>1.672236211758071</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.863750957990147</v>
@@ -52025,7 +51797,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.721950735594555</v>
+        <v>1.677698299027185</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.918443178066457</v>
@@ -52114,7 +51886,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.705583033316844</v>
+        <v>1.664527196022802</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.971439021165943</v>
@@ -52203,7 +51975,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.704745713107026</v>
+        <v>1.66496575100732</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.865540586585106</v>
@@ -52292,7 +52064,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710323327146728</v>
+        <v>1.663913208690357</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.077038054337582</v>
@@ -52381,7 +52153,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.69835539180863</v>
+        <v>1.65902624211535</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.025926849820716</v>
@@ -52470,7 +52242,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.700297674089605</v>
+        <v>1.661984725271951</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.872145566320192</v>
@@ -52559,7 +52331,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.672842290883485</v>
+        <v>1.645353433697104</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.90751468329097</v>
@@ -52648,7 +52420,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.667023912070023</v>
+        <v>1.64545848542893</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.812200375615014</v>
@@ -52737,7 +52509,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.657916804717127</v>
+        <v>1.641970326568293</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.047783136908536</v>
@@ -52826,7 +52598,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.658958890029553</v>
+        <v>1.642383347565137</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.853808122024483</v>
@@ -52915,7 +52687,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.649002012028662</v>
+        <v>1.630228860911851</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.983016646498339</v>
@@ -53004,7 +52776,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.63140060288657</v>
+        <v>1.620869916058887</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.866898411191071</v>
@@ -53093,7 +52865,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.6415160604191</v>
+        <v>1.628969150523226</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.734665901614497</v>
@@ -53182,7 +52954,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.624876105563109</v>
+        <v>1.61129597081137</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.197342196298439</v>
@@ -53271,7 +53043,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.622912547602786</v>
+        <v>1.609626349123394</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.054030944674894</v>
@@ -53360,7 +53132,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.641571676772085</v>
+        <v>1.627260449077305</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.672296616532415</v>
@@ -53449,7 +53221,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.636081141099714</v>
+        <v>1.626480081466796</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.085242788763947</v>
@@ -53538,7 +53310,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.622832297369551</v>
+        <v>1.613478918573085</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.187499656177602</v>
@@ -53627,7 +53399,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.617806595989921</v>
+        <v>1.616843962809234</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.866320853924622</v>
@@ -53716,7 +53488,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.609561572931836</v>
+        <v>1.605558097193427</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.934641254546084</v>
@@ -53805,7 +53577,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.60966425090065</v>
+        <v>1.600220428369803</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.656345045748494</v>
@@ -53894,7 +53666,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.619932830324336</v>
+        <v>1.607996850847766</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.961507479873607</v>
@@ -53983,7 +53755,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.625291313832131</v>
+        <v>1.611755299587973</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.93022290544029</v>
@@ -54072,7 +53844,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.602718189666849</v>
+        <v>1.594490908875951</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.985129309549067</v>
